--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7302,28 +7302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1008.383505780108</v>
+        <v>1103.350551530427</v>
       </c>
       <c r="AB2" t="n">
-        <v>1379.714799348903</v>
+        <v>1509.652900994856</v>
       </c>
       <c r="AC2" t="n">
-        <v>1248.036755340926</v>
+        <v>1365.573746935061</v>
       </c>
       <c r="AD2" t="n">
-        <v>1008383.505780108</v>
+        <v>1103350.551530427</v>
       </c>
       <c r="AE2" t="n">
-        <v>1379714.799348903</v>
+        <v>1509652.900994856</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.396662496674038e-06</v>
+        <v>2.013518620128819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.76106770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1248036.755340926</v>
+        <v>1365573.746935061</v>
       </c>
     </row>
     <row r="3">
@@ -7408,28 +7408,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>506.7584037804484</v>
+        <v>575.6546644351731</v>
       </c>
       <c r="AB3" t="n">
-        <v>693.3692046553352</v>
+        <v>787.6361079716334</v>
       </c>
       <c r="AC3" t="n">
-        <v>627.19502091282</v>
+        <v>712.4652232810403</v>
       </c>
       <c r="AD3" t="n">
-        <v>506758.4037804484</v>
+        <v>575654.6644351732</v>
       </c>
       <c r="AE3" t="n">
-        <v>693369.2046553353</v>
+        <v>787636.1079716333</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.173094432120345e-06</v>
+        <v>3.132872911524719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>627195.02091282</v>
+        <v>712465.2232810403</v>
       </c>
     </row>
     <row r="4">
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>425.2554359186498</v>
+        <v>476.9703913455303</v>
       </c>
       <c r="AB4" t="n">
-        <v>581.8532483696491</v>
+        <v>652.61193188752</v>
       </c>
       <c r="AC4" t="n">
-        <v>526.3219909814121</v>
+        <v>590.3275650547733</v>
       </c>
       <c r="AD4" t="n">
-        <v>425255.4359186498</v>
+        <v>476970.3913455303</v>
       </c>
       <c r="AE4" t="n">
-        <v>581853.2483696492</v>
+        <v>652611.93188752</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.468037732273651e-06</v>
+        <v>3.558082171567967e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.314453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>526321.9909814121</v>
+        <v>590327.5650547734</v>
       </c>
     </row>
     <row r="5">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>386.3843266158556</v>
+        <v>438.1845333887567</v>
       </c>
       <c r="AB5" t="n">
-        <v>528.6680817492535</v>
+        <v>599.5434099197736</v>
       </c>
       <c r="AC5" t="n">
-        <v>478.2127420174169</v>
+        <v>542.3238283414904</v>
       </c>
       <c r="AD5" t="n">
-        <v>386384.3266158556</v>
+        <v>438184.5333887567</v>
       </c>
       <c r="AE5" t="n">
-        <v>528668.0817492534</v>
+        <v>599543.4099197736</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.623772276324208e-06</v>
+        <v>3.782599121790232e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.58203125</v>
       </c>
       <c r="AH5" t="n">
-        <v>478212.7420174169</v>
+        <v>542323.8283414904</v>
       </c>
     </row>
     <row r="6">
@@ -7726,28 +7726,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>369.8127748085679</v>
+        <v>412.9797032945364</v>
       </c>
       <c r="AB6" t="n">
-        <v>505.994153481254</v>
+        <v>565.0570494262357</v>
       </c>
       <c r="AC6" t="n">
-        <v>457.7027816402571</v>
+        <v>511.1287976915449</v>
       </c>
       <c r="AD6" t="n">
-        <v>369812.7748085679</v>
+        <v>412979.7032945364</v>
       </c>
       <c r="AE6" t="n">
-        <v>505994.1534812541</v>
+        <v>565057.0494262357</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.720126023002971e-06</v>
+        <v>3.921508889553649e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>457702.781640257</v>
+        <v>511128.7976915449</v>
       </c>
     </row>
     <row r="7">
@@ -7832,28 +7832,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>350.0592242780832</v>
+        <v>401.7740901964125</v>
       </c>
       <c r="AB7" t="n">
-        <v>478.9664741803004</v>
+        <v>549.7250352286227</v>
       </c>
       <c r="AC7" t="n">
-        <v>433.2545861182003</v>
+        <v>497.2600494103349</v>
       </c>
       <c r="AD7" t="n">
-        <v>350059.2242780832</v>
+        <v>401774.0901964125</v>
       </c>
       <c r="AE7" t="n">
-        <v>478966.4741803004</v>
+        <v>549725.0352286227</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.785949076693404e-06</v>
+        <v>4.016403643694354e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.908203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>433254.5861182003</v>
+        <v>497260.049410335</v>
       </c>
     </row>
     <row r="8">
@@ -7938,28 +7938,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>341.6632602624118</v>
+        <v>393.3781261807411</v>
       </c>
       <c r="AB8" t="n">
-        <v>467.4787458102683</v>
+        <v>538.2373068585907</v>
       </c>
       <c r="AC8" t="n">
-        <v>422.8632304206761</v>
+        <v>486.8686937128107</v>
       </c>
       <c r="AD8" t="n">
-        <v>341663.2602624118</v>
+        <v>393378.1261807411</v>
       </c>
       <c r="AE8" t="n">
-        <v>467478.7458102683</v>
+        <v>538237.3068585907</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.839074349813768e-06</v>
+        <v>4.092992459447633e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.70638020833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>422863.2304206761</v>
+        <v>486868.6937128107</v>
       </c>
     </row>
     <row r="9">
@@ -8044,28 +8044,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>336.0332666235682</v>
+        <v>387.7481325418975</v>
       </c>
       <c r="AB9" t="n">
-        <v>459.7755401358128</v>
+        <v>530.5341011841351</v>
       </c>
       <c r="AC9" t="n">
-        <v>415.8952078842735</v>
+        <v>479.9006711764081</v>
       </c>
       <c r="AD9" t="n">
-        <v>336033.2666235683</v>
+        <v>387748.1325418975</v>
       </c>
       <c r="AE9" t="n">
-        <v>459775.5401358128</v>
+        <v>530534.1011841351</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.871752461574977e-06</v>
+        <v>4.140103330297628e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.58268229166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>415895.2078842735</v>
+        <v>479900.6711764081</v>
       </c>
     </row>
     <row r="10">
@@ -8150,28 +8150,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>331.3137997780926</v>
+        <v>374.3953874094895</v>
       </c>
       <c r="AB10" t="n">
-        <v>453.3181573896505</v>
+        <v>512.2642862124345</v>
       </c>
       <c r="AC10" t="n">
-        <v>410.0541086844113</v>
+        <v>463.3745017037602</v>
       </c>
       <c r="AD10" t="n">
-        <v>331313.7997780927</v>
+        <v>374395.3874094895</v>
       </c>
       <c r="AE10" t="n">
-        <v>453318.1573896505</v>
+        <v>512264.2862124345</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.899015343387185e-06</v>
+        <v>4.179407256835339e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.48502604166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>410054.1086844113</v>
+        <v>463374.5017037602</v>
       </c>
     </row>
     <row r="11">
@@ -8256,28 +8256,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>327.0197007687937</v>
+        <v>370.1012884001905</v>
       </c>
       <c r="AB11" t="n">
-        <v>447.4427816828495</v>
+        <v>506.3889105056336</v>
       </c>
       <c r="AC11" t="n">
-        <v>404.7394705889258</v>
+        <v>458.0598636082748</v>
       </c>
       <c r="AD11" t="n">
-        <v>327019.7007687937</v>
+        <v>370101.2884001905</v>
       </c>
       <c r="AE11" t="n">
-        <v>447442.7816828495</v>
+        <v>506388.9105056336</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.925904761064978e-06</v>
+        <v>4.218172773420478e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.38736979166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>404739.4705889258</v>
+        <v>458059.8636082748</v>
       </c>
     </row>
     <row r="12">
@@ -8362,28 +8362,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>324.245209943178</v>
+        <v>367.3267975745749</v>
       </c>
       <c r="AB12" t="n">
-        <v>443.6466009333456</v>
+        <v>502.5927297561297</v>
       </c>
       <c r="AC12" t="n">
-        <v>401.3055920021815</v>
+        <v>454.6259850215304</v>
       </c>
       <c r="AD12" t="n">
-        <v>324245.209943178</v>
+        <v>367326.7975745749</v>
       </c>
       <c r="AE12" t="n">
-        <v>443646.6009333456</v>
+        <v>502592.7297561297</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.939349469903876e-06</v>
+        <v>4.237555531713049e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>401305.5920021815</v>
+        <v>454625.9850215304</v>
       </c>
     </row>
     <row r="13">
@@ -8468,28 +8468,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>320.0378125719257</v>
+        <v>363.1194002033226</v>
       </c>
       <c r="AB13" t="n">
-        <v>437.8898542327264</v>
+        <v>496.8359830555104</v>
       </c>
       <c r="AC13" t="n">
-        <v>396.0982611270246</v>
+        <v>449.4186541463735</v>
       </c>
       <c r="AD13" t="n">
-        <v>320037.8125719257</v>
+        <v>363119.4002033226</v>
       </c>
       <c r="AE13" t="n">
-        <v>437889.8542327264</v>
+        <v>496835.9830555104</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.963064442439153e-06</v>
+        <v>4.271744563701331e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.25716145833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>396098.2611270245</v>
+        <v>449418.6541463735</v>
       </c>
     </row>
     <row r="14">
@@ -8574,28 +8574,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>317.4586882695253</v>
+        <v>360.5402759009222</v>
       </c>
       <c r="AB14" t="n">
-        <v>434.3609825792485</v>
+        <v>493.3071114020323</v>
       </c>
       <c r="AC14" t="n">
-        <v>392.9061800313521</v>
+        <v>446.2265730507009</v>
       </c>
       <c r="AD14" t="n">
-        <v>317458.6882695253</v>
+        <v>360540.2759009222</v>
       </c>
       <c r="AE14" t="n">
-        <v>434360.9825792484</v>
+        <v>493307.1114020323</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.976695883345257e-06</v>
+        <v>4.291396526970186e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.21158854166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>392906.180031352</v>
+        <v>446226.5730507009</v>
       </c>
     </row>
     <row r="15">
@@ -8680,28 +8680,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>316.0862610715779</v>
+        <v>359.1678487029748</v>
       </c>
       <c r="AB15" t="n">
-        <v>432.4831671398019</v>
+        <v>491.4292959625861</v>
       </c>
       <c r="AC15" t="n">
-        <v>391.2075806619158</v>
+        <v>444.5279736812648</v>
       </c>
       <c r="AD15" t="n">
-        <v>316086.2610715779</v>
+        <v>359167.8487029748</v>
       </c>
       <c r="AE15" t="n">
-        <v>432483.167139802</v>
+        <v>491429.2959625861</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.983324871731102e-06</v>
+        <v>4.300953303628329e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.18880208333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>391207.5806619158</v>
+        <v>444527.9736812648</v>
       </c>
     </row>
     <row r="16">
@@ -8786,28 +8786,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>312.7422021642734</v>
+        <v>355.8237897956702</v>
       </c>
       <c r="AB16" t="n">
-        <v>427.907678213361</v>
+        <v>486.853807036145</v>
       </c>
       <c r="AC16" t="n">
-        <v>387.0687699768753</v>
+        <v>440.3891629962243</v>
       </c>
       <c r="AD16" t="n">
-        <v>312742.2021642734</v>
+        <v>355823.7897956703</v>
       </c>
       <c r="AE16" t="n">
-        <v>427907.678213361</v>
+        <v>486853.807036145</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.99788997297324e-06</v>
+        <v>4.321951291778612e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.13671875</v>
       </c>
       <c r="AH16" t="n">
-        <v>387068.7699768753</v>
+        <v>440389.1629962243</v>
       </c>
     </row>
     <row r="17">
@@ -8892,28 +8892,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>311.2778377534741</v>
+        <v>354.359425384871</v>
       </c>
       <c r="AB17" t="n">
-        <v>425.9040702233071</v>
+        <v>484.8501990460912</v>
       </c>
       <c r="AC17" t="n">
-        <v>385.2563835213107</v>
+        <v>438.5767765406597</v>
       </c>
       <c r="AD17" t="n">
-        <v>311277.8377534741</v>
+        <v>354359.425384871</v>
       </c>
       <c r="AE17" t="n">
-        <v>425904.0702233071</v>
+        <v>484850.1990460912</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.005172523594309e-06</v>
+        <v>4.332450285853754e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.11393229166667</v>
       </c>
       <c r="AH17" t="n">
-        <v>385256.3835213107</v>
+        <v>438576.7765406597</v>
       </c>
     </row>
     <row r="18">
@@ -8998,28 +8998,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>308.8896361668596</v>
+        <v>351.9712237982565</v>
       </c>
       <c r="AB18" t="n">
-        <v>422.6364274524831</v>
+        <v>481.5825562752672</v>
       </c>
       <c r="AC18" t="n">
-        <v>382.3005999903688</v>
+        <v>435.6209930097177</v>
       </c>
       <c r="AD18" t="n">
-        <v>308889.6361668597</v>
+        <v>351971.2237982565</v>
       </c>
       <c r="AE18" t="n">
-        <v>422636.4274524831</v>
+        <v>481582.5562752672</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.012921904383396e-06</v>
+        <v>4.34362229236961e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.087890625</v>
       </c>
       <c r="AH18" t="n">
-        <v>382300.5999903688</v>
+        <v>435620.9930097177</v>
       </c>
     </row>
     <row r="19">
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>307.2541526738121</v>
+        <v>350.335740305209</v>
       </c>
       <c r="AB19" t="n">
-        <v>420.398686784856</v>
+        <v>479.34481560764</v>
       </c>
       <c r="AC19" t="n">
-        <v>380.2764261513712</v>
+        <v>433.5968191707201</v>
       </c>
       <c r="AD19" t="n">
-        <v>307254.1526738121</v>
+        <v>350335.740305209</v>
       </c>
       <c r="AE19" t="n">
-        <v>420398.686784856</v>
+        <v>479344.81560764</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.020484553105276e-06</v>
+        <v>4.354525093909181e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.06184895833333</v>
       </c>
       <c r="AH19" t="n">
-        <v>380276.4261513712</v>
+        <v>433596.8191707201</v>
       </c>
     </row>
     <row r="20">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>305.0075408464469</v>
+        <v>348.0891284778437</v>
       </c>
       <c r="AB20" t="n">
-        <v>417.3247733691362</v>
+        <v>476.2709021919202</v>
       </c>
       <c r="AC20" t="n">
-        <v>377.4958827177831</v>
+        <v>430.8162757371321</v>
       </c>
       <c r="AD20" t="n">
-        <v>305007.5408464469</v>
+        <v>348089.1284778437</v>
       </c>
       <c r="AE20" t="n">
-        <v>417324.7733691361</v>
+        <v>476270.9021919202</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.028514031995172e-06</v>
+        <v>4.366100907889466e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.03580729166667</v>
       </c>
       <c r="AH20" t="n">
-        <v>377495.8827177831</v>
+        <v>430816.2757371321</v>
       </c>
     </row>
     <row r="21">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>303.4120776200653</v>
+        <v>346.4936652514622</v>
       </c>
       <c r="AB21" t="n">
-        <v>415.141790195931</v>
+        <v>474.0879190187151</v>
       </c>
       <c r="AC21" t="n">
-        <v>375.5212403947925</v>
+        <v>428.8416334141415</v>
       </c>
       <c r="AD21" t="n">
-        <v>303412.0776200653</v>
+        <v>346493.6652514622</v>
       </c>
       <c r="AE21" t="n">
-        <v>415141.790195931</v>
+        <v>474087.9190187152</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.027767103726345e-06</v>
+        <v>4.365024087984322e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH21" t="n">
-        <v>375521.2403947925</v>
+        <v>428841.6334141415</v>
       </c>
     </row>
     <row r="22">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>303.2043448523373</v>
+        <v>346.2859324837341</v>
       </c>
       <c r="AB22" t="n">
-        <v>414.8575610586026</v>
+        <v>473.8036898813867</v>
       </c>
       <c r="AC22" t="n">
-        <v>375.2641376874127</v>
+        <v>428.5845307067616</v>
       </c>
       <c r="AD22" t="n">
-        <v>303204.3448523373</v>
+        <v>346285.9324837341</v>
       </c>
       <c r="AE22" t="n">
-        <v>414857.5610586026</v>
+        <v>473803.6898813867</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.035329752448224e-06</v>
+        <v>4.375926889523893e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.01302083333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>375264.1376874127</v>
+        <v>428584.5307067616</v>
       </c>
     </row>
     <row r="23">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>290.8543724591987</v>
+        <v>342.4838975229563</v>
       </c>
       <c r="AB23" t="n">
-        <v>397.9597839879814</v>
+        <v>468.6015779141061</v>
       </c>
       <c r="AC23" t="n">
-        <v>359.9790607442324</v>
+        <v>423.8789010044283</v>
       </c>
       <c r="AD23" t="n">
-        <v>290854.3724591986</v>
+        <v>342483.8975229563</v>
       </c>
       <c r="AE23" t="n">
-        <v>397959.7839879814</v>
+        <v>468601.5779141061</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.043452597371725e-06</v>
+        <v>4.387637305992321e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>359979.0607442324</v>
+        <v>423878.9010044283</v>
       </c>
     </row>
     <row r="24">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>290.9307982873308</v>
+        <v>342.5603233510886</v>
       </c>
       <c r="AB24" t="n">
-        <v>398.0643531777015</v>
+        <v>468.7061471038261</v>
       </c>
       <c r="AC24" t="n">
-        <v>360.0736499972494</v>
+        <v>423.9734902574452</v>
       </c>
       <c r="AD24" t="n">
-        <v>290930.7982873308</v>
+        <v>342560.3233510886</v>
       </c>
       <c r="AE24" t="n">
-        <v>398064.3531777015</v>
+        <v>468706.1471038262</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.04223883893488e-06</v>
+        <v>4.385887473646464e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.990234375</v>
       </c>
       <c r="AH24" t="n">
-        <v>360073.6499972494</v>
+        <v>423973.4902574453</v>
       </c>
     </row>
     <row r="25">
@@ -9740,28 +9740,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>287.9653180125083</v>
+        <v>339.594843076266</v>
       </c>
       <c r="AB25" t="n">
-        <v>394.0068522379329</v>
+        <v>464.6486461640577</v>
       </c>
       <c r="AC25" t="n">
-        <v>356.4033912524341</v>
+        <v>420.3032315126299</v>
       </c>
       <c r="AD25" t="n">
-        <v>287965.3180125083</v>
+        <v>339594.8430762661</v>
       </c>
       <c r="AE25" t="n">
-        <v>394006.8522379329</v>
+        <v>464648.6461640577</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.049521389555949e-06</v>
+        <v>4.396386467721606e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.967447916666666</v>
       </c>
       <c r="AH25" t="n">
-        <v>356403.3912524341</v>
+        <v>420303.2315126299</v>
       </c>
     </row>
     <row r="26">
@@ -9846,28 +9846,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>287.1568976102846</v>
+        <v>338.7864226740423</v>
       </c>
       <c r="AB26" t="n">
-        <v>392.9007357786194</v>
+        <v>463.542529704744</v>
       </c>
       <c r="AC26" t="n">
-        <v>355.4028409955532</v>
+        <v>419.302681255749</v>
       </c>
       <c r="AD26" t="n">
-        <v>287156.8976102846</v>
+        <v>338786.4226740423</v>
       </c>
       <c r="AE26" t="n">
-        <v>392900.7357786194</v>
+        <v>463542.529704744</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.049334657488742e-06</v>
+        <v>4.39611726274532e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.967447916666666</v>
       </c>
       <c r="AH26" t="n">
-        <v>355402.8409955532</v>
+        <v>419302.681255749</v>
       </c>
     </row>
     <row r="27">
@@ -9952,28 +9952,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>285.3906436482596</v>
+        <v>337.0201687120173</v>
       </c>
       <c r="AB27" t="n">
-        <v>390.4840691861514</v>
+        <v>461.1258631122761</v>
       </c>
       <c r="AC27" t="n">
-        <v>353.2168176708576</v>
+        <v>417.1166579310534</v>
       </c>
       <c r="AD27" t="n">
-        <v>285390.6436482596</v>
+        <v>337020.1687120173</v>
       </c>
       <c r="AE27" t="n">
-        <v>390484.0691861514</v>
+        <v>461125.8631122761</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.05792433258026e-06</v>
+        <v>4.408500691654461e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>9.938151041666666</v>
       </c>
       <c r="AH27" t="n">
-        <v>353216.8176708575</v>
+        <v>417116.6579310534</v>
       </c>
     </row>
     <row r="28">
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>284.3290626075508</v>
+        <v>335.9585876713085</v>
       </c>
       <c r="AB28" t="n">
-        <v>389.0315671726035</v>
+        <v>459.6733610987283</v>
       </c>
       <c r="AC28" t="n">
-        <v>351.9029404108832</v>
+        <v>415.8027806710791</v>
       </c>
       <c r="AD28" t="n">
-        <v>284329.0626075508</v>
+        <v>335958.5876713085</v>
       </c>
       <c r="AE28" t="n">
-        <v>389031.5671726035</v>
+        <v>459673.3610987283</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.057830966546656e-06</v>
+        <v>4.408366089166319e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9.938151041666666</v>
       </c>
       <c r="AH28" t="n">
-        <v>351902.9404108832</v>
+        <v>415802.7806710791</v>
       </c>
     </row>
     <row r="29">
@@ -10164,28 +10164,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>284.6077851326892</v>
+        <v>336.237310196447</v>
       </c>
       <c r="AB29" t="n">
-        <v>389.4129276278678</v>
+        <v>460.0547215539925</v>
       </c>
       <c r="AC29" t="n">
-        <v>352.2479043595399</v>
+        <v>416.1477446197358</v>
       </c>
       <c r="AD29" t="n">
-        <v>284607.7851326892</v>
+        <v>336237.310196447</v>
       </c>
       <c r="AE29" t="n">
-        <v>389412.9276278678</v>
+        <v>460054.7215539925</v>
       </c>
       <c r="AF29" t="n">
-        <v>3.056430476042605e-06</v>
+        <v>4.406347051844176e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>9.944661458333334</v>
       </c>
       <c r="AH29" t="n">
-        <v>352247.9043595399</v>
+        <v>416147.7446197357</v>
       </c>
     </row>
     <row r="30">
@@ -10270,28 +10270,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>285.3581578366548</v>
+        <v>336.9876829004125</v>
       </c>
       <c r="AB30" t="n">
-        <v>390.4396206655409</v>
+        <v>461.0814145916655</v>
       </c>
       <c r="AC30" t="n">
-        <v>353.1766112546701</v>
+        <v>417.076451514866</v>
       </c>
       <c r="AD30" t="n">
-        <v>285358.1578366547</v>
+        <v>336987.6829004125</v>
       </c>
       <c r="AE30" t="n">
-        <v>390439.6206655409</v>
+        <v>461081.4145916655</v>
       </c>
       <c r="AF30" t="n">
-        <v>3.056523842076208e-06</v>
+        <v>4.406481654332319e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9.944661458333334</v>
       </c>
       <c r="AH30" t="n">
-        <v>353176.6112546701</v>
+        <v>417076.451514866</v>
       </c>
     </row>
   </sheetData>
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>723.0768804596396</v>
+        <v>798.7484411086463</v>
       </c>
       <c r="AB2" t="n">
-        <v>989.3456877454635</v>
+        <v>1092.882855419078</v>
       </c>
       <c r="AC2" t="n">
-        <v>894.9239238624293</v>
+        <v>988.5796495686018</v>
       </c>
       <c r="AD2" t="n">
-        <v>723076.8804596396</v>
+        <v>798748.4411086462</v>
       </c>
       <c r="AE2" t="n">
-        <v>989345.6877454635</v>
+        <v>1092882.855419078</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.707541339294402e-06</v>
+        <v>2.499776284809849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.41145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>894923.9238624293</v>
+        <v>988579.6495686017</v>
       </c>
     </row>
     <row r="3">
@@ -10673,28 +10673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>416.8484636354916</v>
+        <v>475.6850876659411</v>
       </c>
       <c r="AB3" t="n">
-        <v>570.3504580023912</v>
+        <v>650.8533226895098</v>
       </c>
       <c r="AC3" t="n">
-        <v>515.9170107825374</v>
+        <v>588.7367950503979</v>
       </c>
       <c r="AD3" t="n">
-        <v>416848.4636354916</v>
+        <v>475685.0876659411</v>
       </c>
       <c r="AE3" t="n">
-        <v>570350.4580023912</v>
+        <v>650853.3226895098</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.427878649575394e-06</v>
+        <v>3.554323008725899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.94921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>515917.0107825375</v>
+        <v>588736.7950503979</v>
       </c>
     </row>
     <row r="4">
@@ -10779,28 +10779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.7586449611063</v>
+        <v>409.2631862911244</v>
       </c>
       <c r="AB4" t="n">
-        <v>490.8694053501665</v>
+        <v>559.9719469010092</v>
       </c>
       <c r="AC4" t="n">
-        <v>444.0215182430832</v>
+        <v>506.5290102143396</v>
       </c>
       <c r="AD4" t="n">
-        <v>358758.6449611062</v>
+        <v>409263.1862911244</v>
       </c>
       <c r="AE4" t="n">
-        <v>490869.4053501665</v>
+        <v>559971.9469010092</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.692523893631431e-06</v>
+        <v>3.941753690346975e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.67643229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>444021.5182430832</v>
+        <v>506529.0102143396</v>
       </c>
     </row>
     <row r="5">
@@ -10885,28 +10885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>336.6808634170338</v>
+        <v>378.7680707005999</v>
       </c>
       <c r="AB5" t="n">
-        <v>460.6616106385865</v>
+        <v>518.2471844005039</v>
       </c>
       <c r="AC5" t="n">
-        <v>416.6967130618703</v>
+        <v>468.7864004858105</v>
       </c>
       <c r="AD5" t="n">
-        <v>336680.8634170338</v>
+        <v>378768.0707005999</v>
       </c>
       <c r="AE5" t="n">
-        <v>460661.6106385865</v>
+        <v>518247.1844005039</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.833346070943e-06</v>
+        <v>4.147912060348262e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.09700520833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>416696.7130618703</v>
+        <v>468786.4004858105</v>
       </c>
     </row>
     <row r="6">
@@ -10991,28 +10991,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>316.4032281615947</v>
+        <v>366.8224286370412</v>
       </c>
       <c r="AB6" t="n">
-        <v>432.9168554959639</v>
+        <v>501.902629924609</v>
       </c>
       <c r="AC6" t="n">
-        <v>391.5998784100512</v>
+        <v>454.0017473493688</v>
       </c>
       <c r="AD6" t="n">
-        <v>316403.2281615947</v>
+        <v>366822.4286370412</v>
       </c>
       <c r="AE6" t="n">
-        <v>432916.8554959639</v>
+        <v>501902.629924609</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.91370550271476e-06</v>
+        <v>4.265555245424443e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.791015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>391599.8784100512</v>
+        <v>454001.7473493688</v>
       </c>
     </row>
     <row r="7">
@@ -11097,28 +11097,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>307.9616644225854</v>
+        <v>358.3808648980319</v>
       </c>
       <c r="AB7" t="n">
-        <v>421.366735572743</v>
+        <v>490.3525100013881</v>
       </c>
       <c r="AC7" t="n">
-        <v>381.1520857216072</v>
+        <v>443.5539546609249</v>
       </c>
       <c r="AD7" t="n">
-        <v>307961.6644225854</v>
+        <v>358380.8648980319</v>
       </c>
       <c r="AE7" t="n">
-        <v>421366.735572743</v>
+        <v>490352.510001388</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.970787743312248e-06</v>
+        <v>4.349121498285046e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.58268229166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>381152.0857216073</v>
+        <v>443553.954660925</v>
       </c>
     </row>
     <row r="8">
@@ -11203,28 +11203,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>300.9089954973757</v>
+        <v>342.9108619263703</v>
       </c>
       <c r="AB8" t="n">
-        <v>411.7169628074776</v>
+        <v>469.1857694471971</v>
       </c>
       <c r="AC8" t="n">
-        <v>372.4232737255177</v>
+        <v>424.4073381175191</v>
       </c>
       <c r="AD8" t="n">
-        <v>300908.9954973757</v>
+        <v>342910.8619263703</v>
       </c>
       <c r="AE8" t="n">
-        <v>411716.9628074776</v>
+        <v>469185.7694471971</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.016859196383317e-06</v>
+        <v>4.41656837242127e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.42317708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>372423.2737255177</v>
+        <v>424407.3381175191</v>
       </c>
     </row>
     <row r="9">
@@ -11309,28 +11309,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>295.6811627376646</v>
+        <v>337.6830291666591</v>
       </c>
       <c r="AB9" t="n">
-        <v>404.5640113899369</v>
+        <v>462.0328180296565</v>
       </c>
       <c r="AC9" t="n">
-        <v>365.9529899520367</v>
+        <v>417.9370543440382</v>
       </c>
       <c r="AD9" t="n">
-        <v>295681.1627376647</v>
+        <v>337683.0291666592</v>
       </c>
       <c r="AE9" t="n">
-        <v>404564.0113899369</v>
+        <v>462032.8180296565</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.052402791205442e-06</v>
+        <v>4.468602858128042e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.29947916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>365952.9899520367</v>
+        <v>417937.0543440382</v>
       </c>
     </row>
     <row r="10">
@@ -11415,28 +11415,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>292.3084450819144</v>
+        <v>334.310311510909</v>
       </c>
       <c r="AB10" t="n">
-        <v>399.9493102995378</v>
+        <v>457.4181169392575</v>
       </c>
       <c r="AC10" t="n">
-        <v>361.7787094569317</v>
+        <v>413.7627738489332</v>
       </c>
       <c r="AD10" t="n">
-        <v>292308.4450819144</v>
+        <v>334310.311510909</v>
       </c>
       <c r="AE10" t="n">
-        <v>399949.3102995378</v>
+        <v>457418.1169392575</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.071333618882443e-06</v>
+        <v>4.496316877689258e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.23763020833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>361778.7094569317</v>
+        <v>413762.7738489332</v>
       </c>
     </row>
     <row r="11">
@@ -11521,28 +11521,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>288.6546848988199</v>
+        <v>330.6565513278145</v>
       </c>
       <c r="AB11" t="n">
-        <v>394.9500744245051</v>
+        <v>452.4188810642246</v>
       </c>
       <c r="AC11" t="n">
-        <v>357.2565936373404</v>
+        <v>409.2406580293418</v>
       </c>
       <c r="AD11" t="n">
-        <v>288654.6848988199</v>
+        <v>330656.5513278145</v>
       </c>
       <c r="AE11" t="n">
-        <v>394950.0744245051</v>
+        <v>452418.8810642246</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.091133719258899e-06</v>
+        <v>4.525303479781347e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.17252604166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>357256.5936373404</v>
+        <v>409240.6580293418</v>
       </c>
     </row>
     <row r="12">
@@ -11627,28 +11627,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>285.4928589748104</v>
+        <v>327.4947254038049</v>
       </c>
       <c r="AB12" t="n">
-        <v>390.6239247053601</v>
+        <v>448.0927313450796</v>
       </c>
       <c r="AC12" t="n">
-        <v>353.3433255756013</v>
+        <v>405.3273899676028</v>
       </c>
       <c r="AD12" t="n">
-        <v>285492.8589748103</v>
+        <v>327494.7254038049</v>
       </c>
       <c r="AE12" t="n">
-        <v>390623.9247053601</v>
+        <v>448092.7313450797</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.105042082450164e-06</v>
+        <v>4.545664800275299e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.126953125</v>
       </c>
       <c r="AH12" t="n">
-        <v>353343.3255756014</v>
+        <v>405327.3899676028</v>
       </c>
     </row>
     <row r="13">
@@ -11733,28 +11733,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>282.7764059292608</v>
+        <v>324.7782723582553</v>
       </c>
       <c r="AB13" t="n">
-        <v>386.9071538069887</v>
+        <v>444.3759604467083</v>
       </c>
       <c r="AC13" t="n">
-        <v>349.9812780752499</v>
+        <v>401.9653424672514</v>
       </c>
       <c r="AD13" t="n">
-        <v>282776.4059292608</v>
+        <v>324778.2723582553</v>
       </c>
       <c r="AE13" t="n">
-        <v>386907.1538069887</v>
+        <v>444375.9604467084</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.11895044564143e-06</v>
+        <v>4.566026120769255e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.08138020833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>349981.2780752499</v>
+        <v>401965.3424672514</v>
       </c>
     </row>
     <row r="14">
@@ -11839,28 +11839,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>280.3520920207525</v>
+        <v>322.353958449747</v>
       </c>
       <c r="AB14" t="n">
-        <v>383.5901005641865</v>
+        <v>441.058907203906</v>
       </c>
       <c r="AC14" t="n">
-        <v>346.9807997384272</v>
+        <v>398.9648641304286</v>
       </c>
       <c r="AD14" t="n">
-        <v>280352.0920207525</v>
+        <v>322353.958449747</v>
       </c>
       <c r="AE14" t="n">
-        <v>383590.1005641865</v>
+        <v>441058.907203906</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.132086121988737e-06</v>
+        <v>4.585256256791322e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH14" t="n">
-        <v>346980.7997384272</v>
+        <v>398964.8641304286</v>
       </c>
     </row>
     <row r="15">
@@ -11945,28 +11945,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>276.9101894073966</v>
+        <v>318.9120558363911</v>
       </c>
       <c r="AB15" t="n">
-        <v>378.8807375625663</v>
+        <v>436.3495442022859</v>
       </c>
       <c r="AC15" t="n">
-        <v>342.7208917320492</v>
+        <v>394.7049561240506</v>
       </c>
       <c r="AD15" t="n">
-        <v>276910.1894073965</v>
+        <v>318912.0558363911</v>
       </c>
       <c r="AE15" t="n">
-        <v>378880.7375625663</v>
+        <v>436349.5442022859</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.140199333850309e-06</v>
+        <v>4.597133693746129e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.01302083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>342720.8917320492</v>
+        <v>394704.9561240506</v>
       </c>
     </row>
     <row r="16">
@@ -12051,28 +12051,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>265.5308501074153</v>
+        <v>315.8647097282903</v>
       </c>
       <c r="AB16" t="n">
-        <v>363.311023511313</v>
+        <v>432.1800308177603</v>
       </c>
       <c r="AC16" t="n">
-        <v>328.6371293376166</v>
+        <v>390.9333752449953</v>
       </c>
       <c r="AD16" t="n">
-        <v>265530.8501074153</v>
+        <v>315864.7097282903</v>
       </c>
       <c r="AE16" t="n">
-        <v>363311.023511313</v>
+        <v>432180.0308177603</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.155266727307514e-06</v>
+        <v>4.619191790947913e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.964192708333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>328637.1293376166</v>
+        <v>390933.3752449953</v>
       </c>
     </row>
     <row r="17">
@@ -12157,28 +12157,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>263.6909667097842</v>
+        <v>314.0248263306591</v>
       </c>
       <c r="AB17" t="n">
-        <v>360.7936138767473</v>
+        <v>429.6626211831946</v>
       </c>
       <c r="AC17" t="n">
-        <v>326.3599777453672</v>
+        <v>388.656223652746</v>
       </c>
       <c r="AD17" t="n">
-        <v>263690.9667097842</v>
+        <v>314024.8263306591</v>
       </c>
       <c r="AE17" t="n">
-        <v>360793.6138767473</v>
+        <v>429662.6211831946</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.161255050348198e-06</v>
+        <v>4.627958470605032e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.944661458333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>326359.9777453672</v>
+        <v>388656.2236527459</v>
       </c>
     </row>
     <row r="18">
@@ -12263,28 +12263,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>260.4124740148534</v>
+        <v>310.7463336357284</v>
       </c>
       <c r="AB18" t="n">
-        <v>356.3078355346533</v>
+        <v>425.1768428411007</v>
       </c>
       <c r="AC18" t="n">
-        <v>322.3023157924132</v>
+        <v>384.598561699792</v>
       </c>
       <c r="AD18" t="n">
-        <v>260412.4740148534</v>
+        <v>310746.3336357284</v>
       </c>
       <c r="AE18" t="n">
-        <v>356307.8355346533</v>
+        <v>425176.8428411006</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.17014094905373e-06</v>
+        <v>4.640967092031725e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.918619791666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>322302.3157924132</v>
+        <v>384598.561699792</v>
       </c>
     </row>
     <row r="19">
@@ -12369,28 +12369,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>259.1835502195085</v>
+        <v>309.5174098403834</v>
       </c>
       <c r="AB19" t="n">
-        <v>354.6263677815709</v>
+        <v>423.4953750880182</v>
       </c>
       <c r="AC19" t="n">
-        <v>320.7813249617301</v>
+        <v>383.077570869109</v>
       </c>
       <c r="AD19" t="n">
-        <v>259183.5502195085</v>
+        <v>309517.4098403835</v>
       </c>
       <c r="AE19" t="n">
-        <v>354626.3677815709</v>
+        <v>423495.3750880182</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.167822888521851e-06</v>
+        <v>4.637573538616066e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.925130208333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>320781.3249617302</v>
+        <v>383077.570869109</v>
       </c>
     </row>
     <row r="20">
@@ -12475,28 +12475,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>258.310030268334</v>
+        <v>308.6438898892089</v>
       </c>
       <c r="AB20" t="n">
-        <v>353.4311792473935</v>
+        <v>422.3001865538408</v>
       </c>
       <c r="AC20" t="n">
-        <v>319.700203543797</v>
+        <v>381.9964494511757</v>
       </c>
       <c r="AD20" t="n">
-        <v>258310.030268334</v>
+        <v>308643.8898892089</v>
       </c>
       <c r="AE20" t="n">
-        <v>353431.1792473935</v>
+        <v>422300.1865538408</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.175356585250454e-06</v>
+        <v>4.648602587216958e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.90234375</v>
       </c>
       <c r="AH20" t="n">
-        <v>319700.203543797</v>
+        <v>381996.4494511758</v>
       </c>
     </row>
     <row r="21">
@@ -12581,28 +12581,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>258.8794643141966</v>
+        <v>309.2133239350715</v>
       </c>
       <c r="AB21" t="n">
-        <v>354.2103040305998</v>
+        <v>423.0793113370472</v>
       </c>
       <c r="AC21" t="n">
-        <v>320.4049697512025</v>
+        <v>382.7012156585814</v>
       </c>
       <c r="AD21" t="n">
-        <v>258879.4643141966</v>
+        <v>309213.3239350715</v>
       </c>
       <c r="AE21" t="n">
-        <v>354210.3040305998</v>
+        <v>423079.3113370471</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.174777070117484e-06</v>
+        <v>4.647754198863043e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.90234375</v>
       </c>
       <c r="AH21" t="n">
-        <v>320404.9697512026</v>
+        <v>382701.2156585814</v>
       </c>
     </row>
     <row r="22">
@@ -12687,28 +12687,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>259.7290910166523</v>
+        <v>310.0629506375271</v>
       </c>
       <c r="AB22" t="n">
-        <v>355.3728007677844</v>
+        <v>424.2418080742316</v>
       </c>
       <c r="AC22" t="n">
-        <v>321.4565194313647</v>
+        <v>383.7527653387435</v>
       </c>
       <c r="AD22" t="n">
-        <v>259729.0910166522</v>
+        <v>310062.9506375272</v>
       </c>
       <c r="AE22" t="n">
-        <v>355372.8007677844</v>
+        <v>424241.8080742316</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.17468048426199e-06</v>
+        <v>4.647612800804058e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.90234375</v>
       </c>
       <c r="AH22" t="n">
-        <v>321456.5194313647</v>
+        <v>383752.7653387435</v>
       </c>
     </row>
   </sheetData>
@@ -12984,28 +12984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.7066983749202</v>
+        <v>371.3105202889104</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.278029765088</v>
+        <v>508.0434349233258</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.8767581524382</v>
+        <v>459.5564825376821</v>
       </c>
       <c r="AD2" t="n">
-        <v>324706.6983749202</v>
+        <v>371310.5202889104</v>
       </c>
       <c r="AE2" t="n">
-        <v>444278.029765088</v>
+        <v>508043.4349233258</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.697195777639196e-06</v>
+        <v>4.172894790745201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>401876.7581524383</v>
+        <v>459556.4825376821</v>
       </c>
     </row>
     <row r="3">
@@ -13090,28 +13090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>240.8360197678302</v>
+        <v>287.3544113187006</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.5224671815129</v>
+        <v>393.170982748164</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.0733054014947</v>
+        <v>355.6472959736184</v>
       </c>
       <c r="AD3" t="n">
-        <v>240836.0197678301</v>
+        <v>287354.4113187006</v>
       </c>
       <c r="AE3" t="n">
-        <v>329522.4671815129</v>
+        <v>393170.982748164</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.205142860673382e-06</v>
+        <v>4.958751625588249e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.947265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>298073.3054014947</v>
+        <v>355647.2959736185</v>
       </c>
     </row>
     <row r="4">
@@ -13196,28 +13196,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>223.9010249827995</v>
+        <v>262.652217307981</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.3512601974048</v>
+        <v>359.3723511188107</v>
       </c>
       <c r="AC4" t="n">
-        <v>277.1135258909493</v>
+        <v>325.0743583102933</v>
       </c>
       <c r="AD4" t="n">
-        <v>223901.0249827995</v>
+        <v>262652.217307981</v>
       </c>
       <c r="AE4" t="n">
-        <v>306351.2601974048</v>
+        <v>359372.3511188107</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.37661406990474e-06</v>
+        <v>5.224038751460367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>277113.5258909493</v>
+        <v>325074.3583102933</v>
       </c>
     </row>
     <row r="5">
@@ -13302,28 +13302,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>213.8229270909938</v>
+        <v>252.574119416172</v>
       </c>
       <c r="AB5" t="n">
-        <v>292.5619620475435</v>
+        <v>345.5830529687747</v>
       </c>
       <c r="AC5" t="n">
-        <v>264.6402590031047</v>
+        <v>312.6010914223991</v>
       </c>
       <c r="AD5" t="n">
-        <v>213822.9270909938</v>
+        <v>252574.1194161719</v>
       </c>
       <c r="AE5" t="n">
-        <v>292561.9620475435</v>
+        <v>345583.0529687747</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.464774628767876e-06</v>
+        <v>5.360434017936413e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.126953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>264640.2590031048</v>
+        <v>312601.091422399</v>
       </c>
     </row>
     <row r="6">
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>199.0984055969348</v>
+        <v>245.53145629323</v>
       </c>
       <c r="AB6" t="n">
-        <v>272.4152221393402</v>
+        <v>335.9469705836015</v>
       </c>
       <c r="AC6" t="n">
-        <v>246.416295675607</v>
+        <v>303.8846632157372</v>
       </c>
       <c r="AD6" t="n">
-        <v>199098.4055969348</v>
+        <v>245531.45629323</v>
       </c>
       <c r="AE6" t="n">
-        <v>272415.2221393402</v>
+        <v>335946.9705836015</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.514998125626339e-06</v>
+        <v>5.438135966809078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.98046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>246416.295675607</v>
+        <v>303884.6632157372</v>
       </c>
     </row>
     <row r="7">
@@ -13514,28 +13514,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>196.7933715289896</v>
+        <v>243.2264222252849</v>
       </c>
       <c r="AB7" t="n">
-        <v>269.2613728366531</v>
+        <v>332.7931212809145</v>
       </c>
       <c r="AC7" t="n">
-        <v>243.563445323912</v>
+        <v>301.0318128640423</v>
       </c>
       <c r="AD7" t="n">
-        <v>196793.3715289896</v>
+        <v>243226.4222252849</v>
       </c>
       <c r="AE7" t="n">
-        <v>269261.3728366531</v>
+        <v>332793.1212809145</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.530841160043063e-06</v>
+        <v>5.462647096603673e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.934895833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>243563.445323912</v>
+        <v>301031.8128640423</v>
       </c>
     </row>
     <row r="8">
@@ -13620,28 +13620,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>197.7216757645974</v>
+        <v>244.1547264608927</v>
       </c>
       <c r="AB8" t="n">
-        <v>270.5315196457036</v>
+        <v>334.063268089965</v>
       </c>
       <c r="AC8" t="n">
-        <v>244.7123711041693</v>
+        <v>302.1807386442996</v>
       </c>
       <c r="AD8" t="n">
-        <v>197721.6757645974</v>
+        <v>244154.7264608927</v>
       </c>
       <c r="AE8" t="n">
-        <v>270531.5196457036</v>
+        <v>334063.268089965</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.531272263020389e-06</v>
+        <v>5.463314066121893e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.934895833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>244712.3711041693</v>
+        <v>302180.7386442996</v>
       </c>
     </row>
   </sheetData>
@@ -13917,28 +13917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>429.4008622466393</v>
+        <v>493.4872454860244</v>
       </c>
       <c r="AB2" t="n">
-        <v>587.5252035549069</v>
+        <v>675.2110203947218</v>
       </c>
       <c r="AC2" t="n">
-        <v>531.4526227244281</v>
+        <v>610.7698282728677</v>
       </c>
       <c r="AD2" t="n">
-        <v>429400.8622466393</v>
+        <v>493487.2454860244</v>
       </c>
       <c r="AE2" t="n">
-        <v>587525.2035549069</v>
+        <v>675211.0203947218</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.304720250683757e-06</v>
+        <v>3.483109813798571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.56380208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>531452.6227244281</v>
+        <v>610769.8282728677</v>
       </c>
     </row>
     <row r="3">
@@ -14023,28 +14023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.5071138668321</v>
+        <v>349.6359069372996</v>
       </c>
       <c r="AB3" t="n">
-        <v>412.5353347476879</v>
+        <v>478.3872727191974</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.1635413963467</v>
+        <v>432.7306628316306</v>
       </c>
       <c r="AD3" t="n">
-        <v>301507.1138668321</v>
+        <v>349635.9069372996</v>
       </c>
       <c r="AE3" t="n">
-        <v>412535.3347476879</v>
+        <v>478387.2727191974</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.895515537062226e-06</v>
+        <v>4.375975166684797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.591796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>373163.5413963466</v>
+        <v>432730.6628316306</v>
       </c>
     </row>
     <row r="4">
@@ -14129,28 +14129,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>268.1974946789728</v>
+        <v>316.2409468948687</v>
       </c>
       <c r="AB4" t="n">
-        <v>366.9596442581735</v>
+        <v>432.6948151074853</v>
       </c>
       <c r="AC4" t="n">
-        <v>331.9375308412681</v>
+        <v>391.3990292446132</v>
       </c>
       <c r="AD4" t="n">
-        <v>268197.4946789728</v>
+        <v>316240.9468948687</v>
       </c>
       <c r="AE4" t="n">
-        <v>366959.6442581735</v>
+        <v>432694.8151074853</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.101829911938896e-06</v>
+        <v>4.68777683703826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.8203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>331937.5308412681</v>
+        <v>391399.0292446133</v>
       </c>
     </row>
     <row r="5">
@@ -14235,28 +14235,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>255.2468104055135</v>
+        <v>295.268886618219</v>
       </c>
       <c r="AB5" t="n">
-        <v>349.2399466911948</v>
+        <v>403.9999170149728</v>
       </c>
       <c r="AC5" t="n">
-        <v>315.9089763404351</v>
+        <v>365.4427319525078</v>
       </c>
       <c r="AD5" t="n">
-        <v>255246.8104055135</v>
+        <v>295268.886618219</v>
       </c>
       <c r="AE5" t="n">
-        <v>349239.9466911948</v>
+        <v>403999.9170149728</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.211740518444908e-06</v>
+        <v>4.853884073718315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.44921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>315908.9763404351</v>
+        <v>365442.7319525077</v>
       </c>
     </row>
     <row r="6">
@@ -14341,28 +14341,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>247.3163842923334</v>
+        <v>287.3384605050388</v>
       </c>
       <c r="AB6" t="n">
-        <v>338.3891878174393</v>
+        <v>393.1491581412117</v>
       </c>
       <c r="AC6" t="n">
-        <v>306.0937986644517</v>
+        <v>355.6275542765227</v>
       </c>
       <c r="AD6" t="n">
-        <v>247316.3842923334</v>
+        <v>287338.4605050388</v>
       </c>
       <c r="AE6" t="n">
-        <v>338389.1878174393</v>
+        <v>393149.1581412117</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.273603899217522e-06</v>
+        <v>4.947377827947239e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.25390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>306093.7986644517</v>
+        <v>355627.5542765227</v>
       </c>
     </row>
     <row r="7">
@@ -14447,28 +14447,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>241.1467798322153</v>
+        <v>281.1688560449206</v>
       </c>
       <c r="AB7" t="n">
-        <v>329.9476628113711</v>
+        <v>384.707633135139</v>
       </c>
       <c r="AC7" t="n">
-        <v>298.4579209572051</v>
+        <v>347.9916765692749</v>
       </c>
       <c r="AD7" t="n">
-        <v>241146.7798322153</v>
+        <v>281168.8560449206</v>
       </c>
       <c r="AE7" t="n">
-        <v>329947.662811371</v>
+        <v>384707.633135139</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.317939322104563e-06</v>
+        <v>5.014381685144634e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.1171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>298457.9209572051</v>
+        <v>347991.6765692749</v>
       </c>
     </row>
     <row r="8">
@@ -14553,28 +14553,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>235.9025405057969</v>
+        <v>275.9246167185021</v>
       </c>
       <c r="AB8" t="n">
-        <v>322.7722632054583</v>
+        <v>377.5322335292227</v>
       </c>
       <c r="AC8" t="n">
-        <v>291.9673314189419</v>
+        <v>341.5010870310105</v>
       </c>
       <c r="AD8" t="n">
-        <v>235902.5405057969</v>
+        <v>275924.6167185021</v>
       </c>
       <c r="AE8" t="n">
-        <v>322772.2632054584</v>
+        <v>377532.2335292227</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.350726913914049e-06</v>
+        <v>5.063933374885964e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.01627604166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>291967.3314189418</v>
+        <v>341501.0870310105</v>
       </c>
     </row>
     <row r="9">
@@ -14659,28 +14659,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>222.8551407626325</v>
+        <v>270.8132521239595</v>
       </c>
       <c r="AB9" t="n">
-        <v>304.9202352662177</v>
+        <v>370.5386389934784</v>
       </c>
       <c r="AC9" t="n">
-        <v>275.8190759707381</v>
+        <v>335.1749513421861</v>
       </c>
       <c r="AD9" t="n">
-        <v>222855.1407626325</v>
+        <v>270813.2521239595</v>
       </c>
       <c r="AE9" t="n">
-        <v>304920.2352662177</v>
+        <v>370538.6389934784</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.376709533838547e-06</v>
+        <v>5.103200751662113e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.938151041666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>275819.0759707381</v>
+        <v>335174.9513421861</v>
       </c>
     </row>
     <row r="10">
@@ -14765,28 +14765,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>219.9490298742632</v>
+        <v>267.9071412355901</v>
       </c>
       <c r="AB10" t="n">
-        <v>300.9439661401889</v>
+        <v>366.5623698674476</v>
       </c>
       <c r="AC10" t="n">
-        <v>272.2222963893675</v>
+        <v>331.5781717608149</v>
       </c>
       <c r="AD10" t="n">
-        <v>219949.0298742632</v>
+        <v>267907.1412355902</v>
       </c>
       <c r="AE10" t="n">
-        <v>300943.9661401889</v>
+        <v>366562.3698674475</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.386504569127544e-06</v>
+        <v>5.118003929415025e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.912109375</v>
       </c>
       <c r="AH10" t="n">
-        <v>272222.2963893675</v>
+        <v>331578.1717608149</v>
       </c>
     </row>
     <row r="11">
@@ -14871,28 +14871,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>219.4890449138313</v>
+        <v>259.596372472557</v>
       </c>
       <c r="AB11" t="n">
-        <v>300.3145944242222</v>
+        <v>355.1912094006242</v>
       </c>
       <c r="AC11" t="n">
-        <v>271.6529910266437</v>
+        <v>321.2922588894212</v>
       </c>
       <c r="AD11" t="n">
-        <v>219489.0449138313</v>
+        <v>259596.372472557</v>
       </c>
       <c r="AE11" t="n">
-        <v>300314.5944242222</v>
+        <v>355191.2094006242</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.393309541012532e-06</v>
+        <v>5.128288242380208e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.889322916666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>271652.9910266437</v>
+        <v>321292.2588894212</v>
       </c>
     </row>
     <row r="12">
@@ -14977,28 +14977,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>220.3487769762812</v>
+        <v>260.4561045350069</v>
       </c>
       <c r="AB12" t="n">
-        <v>301.4909177607672</v>
+        <v>356.3675327371699</v>
       </c>
       <c r="AC12" t="n">
-        <v>272.7170477149293</v>
+        <v>322.3563155777072</v>
       </c>
       <c r="AD12" t="n">
-        <v>220348.7769762812</v>
+        <v>260456.1045350069</v>
       </c>
       <c r="AE12" t="n">
-        <v>301490.9177607672</v>
+        <v>356367.5327371699</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.393515752281774e-06</v>
+        <v>5.128599888227637e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.889322916666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>272717.0477149293</v>
+        <v>322356.3155777072</v>
       </c>
     </row>
   </sheetData>
@@ -15274,28 +15274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.7847925645063</v>
+        <v>302.0524110413359</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.3442817321118</v>
+        <v>413.2814343986574</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.8124765985004</v>
+        <v>373.838434343785</v>
       </c>
       <c r="AD2" t="n">
-        <v>256784.7925645063</v>
+        <v>302052.4110413358</v>
       </c>
       <c r="AE2" t="n">
-        <v>351344.2817321118</v>
+        <v>413281.4343986574</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.034871395395957e-06</v>
+        <v>4.796577792657391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.00520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>317812.4765985004</v>
+        <v>373838.434343785</v>
       </c>
     </row>
     <row r="3">
@@ -15380,28 +15380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>203.6808394240729</v>
+        <v>241.5602384643498</v>
       </c>
       <c r="AB3" t="n">
-        <v>278.6851102643399</v>
+        <v>330.5133751523646</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.087794477802</v>
+        <v>298.9696425063567</v>
       </c>
       <c r="AD3" t="n">
-        <v>203680.8394240729</v>
+        <v>241560.2384643498</v>
       </c>
       <c r="AE3" t="n">
-        <v>278685.1102643399</v>
+        <v>330513.3751523646</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.458878065471562e-06</v>
+        <v>5.466715242537013e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.53385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>252087.794477802</v>
+        <v>298969.6425063567</v>
       </c>
     </row>
     <row r="4">
@@ -15486,28 +15486,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.8665764699026</v>
+        <v>227.5753833095873</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.7838262481843</v>
+        <v>311.3786793613621</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.9904224800235</v>
+        <v>281.6611352259272</v>
       </c>
       <c r="AD4" t="n">
-        <v>189866.5764699026</v>
+        <v>227575.3833095873</v>
       </c>
       <c r="AE4" t="n">
-        <v>259783.8262481843</v>
+        <v>311378.6793613621</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.604168629821651e-06</v>
+        <v>5.696345234602416e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.11067708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>234990.4224800235</v>
+        <v>281661.1352259272</v>
       </c>
     </row>
     <row r="5">
@@ -15592,28 +15592,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>188.0555389427667</v>
+        <v>225.7643457824514</v>
       </c>
       <c r="AB5" t="n">
-        <v>257.3058848062215</v>
+        <v>308.9007379193992</v>
       </c>
       <c r="AC5" t="n">
-        <v>232.7489722914681</v>
+        <v>279.4196850373718</v>
       </c>
       <c r="AD5" t="n">
-        <v>188055.5389427667</v>
+        <v>225764.3457824514</v>
       </c>
       <c r="AE5" t="n">
-        <v>257305.8848062214</v>
+        <v>308900.7379193992</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.623197440252711e-06</v>
+        <v>5.72642004095921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.05533854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>232748.9722914681</v>
+        <v>279419.6850373718</v>
       </c>
     </row>
     <row r="6">
@@ -15698,28 +15698,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>189.1575212886946</v>
+        <v>226.8663281283793</v>
       </c>
       <c r="AB6" t="n">
-        <v>258.8136656679492</v>
+        <v>310.4085187811269</v>
       </c>
       <c r="AC6" t="n">
-        <v>234.1128526639367</v>
+        <v>280.7835654098404</v>
       </c>
       <c r="AD6" t="n">
-        <v>189157.5212886946</v>
+        <v>226866.3281283793</v>
       </c>
       <c r="AE6" t="n">
-        <v>258813.6656679492</v>
+        <v>310408.5187811269</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.622749703536685e-06</v>
+        <v>5.725712398456698e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.05859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>234112.8526639367</v>
+        <v>280783.5654098404</v>
       </c>
     </row>
   </sheetData>
@@ -15995,28 +15995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>790.0374412788761</v>
+        <v>874.6086756026873</v>
       </c>
       <c r="AB2" t="n">
-        <v>1080.964081149797</v>
+        <v>1196.678174971172</v>
       </c>
       <c r="AC2" t="n">
-        <v>977.7983863874763</v>
+        <v>1082.468889500289</v>
       </c>
       <c r="AD2" t="n">
-        <v>790037.4412788762</v>
+        <v>874608.6756026873</v>
       </c>
       <c r="AE2" t="n">
-        <v>1080964.081149797</v>
+        <v>1196678.174971172</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.622136872365484e-06</v>
+        <v>2.364891104954526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.208984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>977798.3863874762</v>
+        <v>1082468.889500289</v>
       </c>
     </row>
     <row r="3">
@@ -16101,28 +16101,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.8215171460928</v>
+        <v>494.6667025692857</v>
       </c>
       <c r="AB3" t="n">
-        <v>607.2561797827328</v>
+        <v>676.8248056100141</v>
       </c>
       <c r="AC3" t="n">
-        <v>549.3005022736694</v>
+        <v>612.2295960921746</v>
       </c>
       <c r="AD3" t="n">
-        <v>443821.5171460928</v>
+        <v>494666.7025692858</v>
       </c>
       <c r="AE3" t="n">
-        <v>607256.1797827329</v>
+        <v>676824.8056100141</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.364336040850877e-06</v>
+        <v>3.446933096328657e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>549300.5022736693</v>
+        <v>612229.5960921745</v>
       </c>
     </row>
     <row r="4">
@@ -16207,28 +16207,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>373.0961278605899</v>
+        <v>423.9412237752318</v>
       </c>
       <c r="AB4" t="n">
-        <v>510.4865819783441</v>
+        <v>580.055085336077</v>
       </c>
       <c r="AC4" t="n">
-        <v>461.7664590667479</v>
+        <v>524.6954421040265</v>
       </c>
       <c r="AD4" t="n">
-        <v>373096.1278605899</v>
+        <v>423941.2237752319</v>
       </c>
       <c r="AE4" t="n">
-        <v>510486.5819783441</v>
+        <v>580055.085336077</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.632155653105472e-06</v>
+        <v>3.837383636935417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.8359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>461766.4590667479</v>
+        <v>524695.4421040264</v>
       </c>
     </row>
     <row r="5">
@@ -16313,28 +16313,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.4176581727409</v>
+        <v>400.0921618867907</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.088655131072</v>
+        <v>547.4237467139579</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.4605448870035</v>
+        <v>495.178392641631</v>
       </c>
       <c r="AD5" t="n">
-        <v>349417.6581727408</v>
+        <v>400092.1618867907</v>
       </c>
       <c r="AE5" t="n">
-        <v>478088.655131072</v>
+        <v>547423.746713958</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.774775818316103e-06</v>
+        <v>4.045307620317859e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.23046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>432460.5448870035</v>
+        <v>495178.392641631</v>
       </c>
     </row>
     <row r="6">
@@ -16419,28 +16419,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>327.0879671306348</v>
+        <v>377.8477221907052</v>
       </c>
       <c r="AB6" t="n">
-        <v>447.5361867308198</v>
+        <v>516.9879229663551</v>
       </c>
       <c r="AC6" t="n">
-        <v>404.8239611902127</v>
+        <v>467.6473211955525</v>
       </c>
       <c r="AD6" t="n">
-        <v>327087.9671306348</v>
+        <v>377847.7221907051</v>
       </c>
       <c r="AE6" t="n">
-        <v>447536.1867308199</v>
+        <v>516987.9229663551</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.865899574880211e-06</v>
+        <v>4.178155695606507e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>404823.9611902127</v>
+        <v>467647.3211955525</v>
       </c>
     </row>
     <row r="7">
@@ -16525,28 +16525,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>317.5321850758477</v>
+        <v>368.291940135918</v>
       </c>
       <c r="AB7" t="n">
-        <v>434.4615441521088</v>
+        <v>503.913280387644</v>
       </c>
       <c r="AC7" t="n">
-        <v>392.9971441488378</v>
+        <v>455.8205041541775</v>
       </c>
       <c r="AD7" t="n">
-        <v>317532.1850758477</v>
+        <v>368291.940135918</v>
       </c>
       <c r="AE7" t="n">
-        <v>434461.5441521088</v>
+        <v>503913.280387644</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.929073607792303e-06</v>
+        <v>4.270256252004099e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>392997.1441488378</v>
+        <v>455820.5041541775</v>
       </c>
     </row>
     <row r="8">
@@ -16631,28 +16631,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>311.7370415574741</v>
+        <v>354.1932956742473</v>
       </c>
       <c r="AB8" t="n">
-        <v>426.5323731265819</v>
+        <v>484.6228930468903</v>
       </c>
       <c r="AC8" t="n">
-        <v>385.8247220773257</v>
+        <v>438.3711643069966</v>
       </c>
       <c r="AD8" t="n">
-        <v>311737.0415574741</v>
+        <v>354193.2956742473</v>
       </c>
       <c r="AE8" t="n">
-        <v>426532.3731265819</v>
+        <v>484622.8930468903</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.966882309307874e-06</v>
+        <v>4.325377039545082e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.50130208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>385824.7220773257</v>
+        <v>438371.1643069966</v>
       </c>
     </row>
     <row r="9">
@@ -16737,28 +16737,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>306.8077094090845</v>
+        <v>349.0933713252655</v>
       </c>
       <c r="AB9" t="n">
-        <v>419.7878434143689</v>
+        <v>477.6449515598303</v>
       </c>
       <c r="AC9" t="n">
-        <v>379.7238808148394</v>
+        <v>432.0591877618593</v>
       </c>
       <c r="AD9" t="n">
-        <v>306807.7094090845</v>
+        <v>349093.3713252655</v>
       </c>
       <c r="AE9" t="n">
-        <v>419787.8434143689</v>
+        <v>477644.9515598303</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.998852198690659e-06</v>
+        <v>4.371985502934166e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>379723.8808148394</v>
+        <v>432059.1877618593</v>
       </c>
     </row>
     <row r="10">
@@ -16843,28 +16843,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>302.124011797645</v>
+        <v>344.409673713826</v>
       </c>
       <c r="AB10" t="n">
-        <v>413.379401712242</v>
+        <v>471.2365098577034</v>
       </c>
       <c r="AC10" t="n">
-        <v>373.927051794459</v>
+        <v>426.2623587414789</v>
       </c>
       <c r="AD10" t="n">
-        <v>302124.011797645</v>
+        <v>344409.673713826</v>
       </c>
       <c r="AE10" t="n">
-        <v>413379.401712242</v>
+        <v>471236.5098577033</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.027184795269415e-06</v>
+        <v>4.41329120701551e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.29296875</v>
       </c>
       <c r="AH10" t="n">
-        <v>373927.0517944591</v>
+        <v>426262.3587414789</v>
       </c>
     </row>
     <row r="11">
@@ -16949,28 +16949,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>298.5690882961494</v>
+        <v>340.8547502123305</v>
       </c>
       <c r="AB11" t="n">
-        <v>408.5153985453396</v>
+        <v>466.372506690801</v>
       </c>
       <c r="AC11" t="n">
-        <v>369.5272622631344</v>
+        <v>421.8625692101543</v>
       </c>
       <c r="AD11" t="n">
-        <v>298569.0882961494</v>
+        <v>340854.7502123305</v>
       </c>
       <c r="AE11" t="n">
-        <v>408515.3985453396</v>
+        <v>466372.506690801</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.048529960935168e-06</v>
+        <v>4.44441003137409e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>369527.2622631345</v>
+        <v>421862.5692101544</v>
       </c>
     </row>
     <row r="12">
@@ -17055,28 +17055,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>295.8938916715036</v>
+        <v>338.1795535876848</v>
       </c>
       <c r="AB12" t="n">
-        <v>404.8550765021537</v>
+        <v>462.712184647615</v>
       </c>
       <c r="AC12" t="n">
-        <v>366.216276218456</v>
+        <v>418.5515831654758</v>
       </c>
       <c r="AD12" t="n">
-        <v>295893.8916715037</v>
+        <v>338179.5535876848</v>
       </c>
       <c r="AE12" t="n">
-        <v>404855.0765021537</v>
+        <v>462712.184647615</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.061356203980956e-06</v>
+        <v>4.463109235248753e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.17903645833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>366216.276218456</v>
+        <v>418551.5831654759</v>
       </c>
     </row>
     <row r="13">
@@ -17161,28 +17161,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>293.1562869912876</v>
+        <v>335.4419489074687</v>
       </c>
       <c r="AB13" t="n">
-        <v>401.1093650040875</v>
+        <v>458.9664731495488</v>
       </c>
       <c r="AC13" t="n">
-        <v>362.8280501686261</v>
+        <v>415.163357115646</v>
       </c>
       <c r="AD13" t="n">
-        <v>293156.2869912876</v>
+        <v>335441.9489074687</v>
       </c>
       <c r="AE13" t="n">
-        <v>401109.3650040874</v>
+        <v>458966.4731495489</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.073608137636634e-06</v>
+        <v>4.480971161337983e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.13671875</v>
       </c>
       <c r="AH13" t="n">
-        <v>362828.0501686261</v>
+        <v>415163.357115646</v>
       </c>
     </row>
     <row r="14">
@@ -17267,28 +17267,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>289.6945023169382</v>
+        <v>331.9801642331192</v>
       </c>
       <c r="AB14" t="n">
-        <v>396.3727984894813</v>
+        <v>454.2299066349427</v>
       </c>
       <c r="AC14" t="n">
-        <v>358.5435349143611</v>
+        <v>410.878841861381</v>
       </c>
       <c r="AD14" t="n">
-        <v>289694.5023169381</v>
+        <v>331980.1642331192</v>
       </c>
       <c r="AE14" t="n">
-        <v>396372.7984894813</v>
+        <v>454229.9066349427</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.090550264644878e-06</v>
+        <v>4.505670856008247e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.08138020833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>358543.5349143611</v>
+        <v>410878.841861381</v>
       </c>
     </row>
     <row r="15">
@@ -17373,28 +17373,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>286.612619768771</v>
+        <v>328.8982816849521</v>
       </c>
       <c r="AB15" t="n">
-        <v>392.1560308240169</v>
+        <v>450.0131389694782</v>
       </c>
       <c r="AC15" t="n">
-        <v>354.729209636618</v>
+        <v>407.0645165836378</v>
       </c>
       <c r="AD15" t="n">
-        <v>286612.619768771</v>
+        <v>328898.2816849521</v>
       </c>
       <c r="AE15" t="n">
-        <v>392156.0308240168</v>
+        <v>450013.1389694782</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.102802198300556e-06</v>
+        <v>4.523532782097475e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.04231770833333</v>
       </c>
       <c r="AH15" t="n">
-        <v>354729.209636618</v>
+        <v>407064.5165836378</v>
       </c>
     </row>
     <row r="16">
@@ -17479,28 +17479,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>284.124645146658</v>
+        <v>326.410307062839</v>
       </c>
       <c r="AB16" t="n">
-        <v>388.7518741843481</v>
+        <v>446.6089823298095</v>
       </c>
       <c r="AC16" t="n">
-        <v>351.6499409288754</v>
+        <v>403.9852478758953</v>
       </c>
       <c r="AD16" t="n">
-        <v>284124.645146658</v>
+        <v>326410.307062839</v>
       </c>
       <c r="AE16" t="n">
-        <v>388751.8741843481</v>
+        <v>446608.9823298095</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.11246973970074e-06</v>
+        <v>4.537626958152259e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.009765625</v>
       </c>
       <c r="AH16" t="n">
-        <v>351649.9409288754</v>
+        <v>403985.2478758952</v>
       </c>
     </row>
     <row r="17">
@@ -17585,28 +17585,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>273.9885590284152</v>
+        <v>324.662973233914</v>
       </c>
       <c r="AB17" t="n">
-        <v>374.8832339848086</v>
+        <v>444.2182030981461</v>
       </c>
       <c r="AC17" t="n">
-        <v>339.1049042852212</v>
+        <v>401.8226412586221</v>
       </c>
       <c r="AD17" t="n">
-        <v>273988.5590284152</v>
+        <v>324662.973233914</v>
       </c>
       <c r="AE17" t="n">
-        <v>374883.2339848086</v>
+        <v>444218.2030981461</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.117734242443414e-06</v>
+        <v>4.545302004518725e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.993489583333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>339104.9042852211</v>
+        <v>401822.6412586221</v>
       </c>
     </row>
     <row r="18">
@@ -17691,28 +17691,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>271.4902358941055</v>
+        <v>322.1646500996042</v>
       </c>
       <c r="AB18" t="n">
-        <v>371.4649180542081</v>
+        <v>440.7998871675456</v>
       </c>
       <c r="AC18" t="n">
-        <v>336.0128276294006</v>
+        <v>398.7305646028016</v>
       </c>
       <c r="AD18" t="n">
-        <v>271490.2358941055</v>
+        <v>322164.6500996042</v>
       </c>
       <c r="AE18" t="n">
-        <v>371464.9180542081</v>
+        <v>440799.8871675457</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.127497502075282e-06</v>
+        <v>4.55953572687108e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.964192708333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>336012.8276294007</v>
+        <v>398730.5646028016</v>
       </c>
     </row>
     <row r="19">
@@ -17797,28 +17797,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>269.2356536823005</v>
+        <v>319.9100678877992</v>
       </c>
       <c r="AB19" t="n">
-        <v>368.3800992068693</v>
+        <v>437.7150683202068</v>
       </c>
       <c r="AC19" t="n">
-        <v>333.2224195632813</v>
+        <v>395.9401565366823</v>
       </c>
       <c r="AD19" t="n">
-        <v>269235.6536823005</v>
+        <v>319910.0678877992</v>
       </c>
       <c r="AE19" t="n">
-        <v>368380.0992068693</v>
+        <v>437715.0683202068</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.133719187134806e-06</v>
+        <v>4.568606236213267e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.94140625</v>
       </c>
       <c r="AH19" t="n">
-        <v>333222.4195632813</v>
+        <v>395940.1565366823</v>
       </c>
     </row>
     <row r="20">
@@ -17903,28 +17903,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>266.3292633296737</v>
+        <v>317.0036775351724</v>
       </c>
       <c r="AB20" t="n">
-        <v>364.4034477055122</v>
+        <v>433.7384168188498</v>
       </c>
       <c r="AC20" t="n">
-        <v>329.6252940999484</v>
+        <v>392.3430310733494</v>
       </c>
       <c r="AD20" t="n">
-        <v>266329.2633296737</v>
+        <v>317003.6775351724</v>
       </c>
       <c r="AE20" t="n">
-        <v>364403.4477055122</v>
+        <v>433738.4168188498</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.140036590426016e-06</v>
+        <v>4.577816291853026e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH20" t="n">
-        <v>329625.2940999484</v>
+        <v>392343.0310733494</v>
       </c>
     </row>
     <row r="21">
@@ -18009,28 +18009,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>266.3888581236877</v>
+        <v>317.0632723291864</v>
       </c>
       <c r="AB21" t="n">
-        <v>364.484987931819</v>
+        <v>433.8199570451565</v>
       </c>
       <c r="AC21" t="n">
-        <v>329.6990522414989</v>
+        <v>392.4167892148998</v>
       </c>
       <c r="AD21" t="n">
-        <v>266388.8581236877</v>
+        <v>317063.2723291864</v>
       </c>
       <c r="AE21" t="n">
-        <v>364484.9879318191</v>
+        <v>433819.9570451565</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.139366562804221e-06</v>
+        <v>4.576839467770022e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.925130208333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>329699.0522414988</v>
+        <v>392416.7892148998</v>
       </c>
     </row>
     <row r="22">
@@ -18115,28 +18115,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>263.9208617542106</v>
+        <v>314.5952759597093</v>
       </c>
       <c r="AB22" t="n">
-        <v>361.1081664187851</v>
+        <v>430.4431355321227</v>
       </c>
       <c r="AC22" t="n">
-        <v>326.6445098342702</v>
+        <v>389.3622468076712</v>
       </c>
       <c r="AD22" t="n">
-        <v>263920.8617542107</v>
+        <v>314595.2759597094</v>
       </c>
       <c r="AE22" t="n">
-        <v>361108.1664187851</v>
+        <v>430443.1355321226</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.14683258487565e-06</v>
+        <v>4.587724078980646e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.90234375</v>
       </c>
       <c r="AH22" t="n">
-        <v>326644.5098342702</v>
+        <v>389362.2468076712</v>
       </c>
     </row>
     <row r="23">
@@ -18221,28 +18221,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>264.3393600401616</v>
+        <v>306.7102733023633</v>
       </c>
       <c r="AB23" t="n">
-        <v>361.6807742364646</v>
+        <v>419.6545270345753</v>
       </c>
       <c r="AC23" t="n">
-        <v>327.1624687654905</v>
+        <v>379.6032879632226</v>
       </c>
       <c r="AD23" t="n">
-        <v>264339.3600401616</v>
+        <v>306710.2733023633</v>
       </c>
       <c r="AE23" t="n">
-        <v>361680.7742364646</v>
+        <v>419654.5270345753</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.147694048960814e-06</v>
+        <v>4.588979995658794e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.899088541666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>327162.4687654905</v>
+        <v>379603.2879632226</v>
       </c>
     </row>
     <row r="24">
@@ -18327,28 +18327,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>265.2874899918818</v>
+        <v>315.9619041973805</v>
       </c>
       <c r="AB24" t="n">
-        <v>362.9780474649496</v>
+        <v>432.313016578287</v>
       </c>
       <c r="AC24" t="n">
-        <v>328.3359320577832</v>
+        <v>391.0536690311841</v>
       </c>
       <c r="AD24" t="n">
-        <v>265287.4899918818</v>
+        <v>315961.9041973805</v>
       </c>
       <c r="AE24" t="n">
-        <v>362978.0474649495</v>
+        <v>432313.016578287</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.1458754025588e-06</v>
+        <v>4.586328616004925e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.905598958333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>328335.9320577832</v>
+        <v>391053.6690311841</v>
       </c>
     </row>
   </sheetData>
@@ -18624,28 +18624,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.0147757813093</v>
+        <v>263.4563554669825</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.6656784738283</v>
+        <v>360.4726084240285</v>
       </c>
       <c r="AC2" t="n">
-        <v>271.0660067037959</v>
+        <v>326.0696086025218</v>
       </c>
       <c r="AD2" t="n">
-        <v>219014.7757813093</v>
+        <v>263456.3554669825</v>
       </c>
       <c r="AE2" t="n">
-        <v>299665.6784738283</v>
+        <v>360472.6084240285</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.243637510839054e-06</v>
+        <v>5.197069215283642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.49739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>271066.0067037959</v>
+        <v>326069.6086025218</v>
       </c>
     </row>
     <row r="3">
@@ -18730,28 +18730,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.8348013344952</v>
+        <v>218.9263598936931</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.7943971710143</v>
+        <v>299.5447039557582</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.0498090902145</v>
+        <v>270.9565778239416</v>
       </c>
       <c r="AD3" t="n">
-        <v>181834.8013344952</v>
+        <v>218926.3598936931</v>
       </c>
       <c r="AE3" t="n">
-        <v>248794.3971710143</v>
+        <v>299544.7039557582</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.620053419181233e-06</v>
+        <v>5.800175919670634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.29947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>225049.8090902145</v>
+        <v>270956.5778239416</v>
       </c>
     </row>
     <row r="4">
@@ -18836,28 +18836,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.8340663904147</v>
+        <v>214.9256249496126</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.3204151205571</v>
+        <v>294.0707219053011</v>
       </c>
       <c r="AC4" t="n">
-        <v>220.0982562038692</v>
+        <v>266.0050249375963</v>
       </c>
       <c r="AD4" t="n">
-        <v>177834.0663904147</v>
+        <v>214925.6249496126</v>
       </c>
       <c r="AE4" t="n">
-        <v>243320.4151205571</v>
+        <v>294070.7219053011</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.67274706429304e-06</v>
+        <v>5.884603516754631e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.15299479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>220098.2562038692</v>
+        <v>266005.0249375963</v>
       </c>
     </row>
   </sheetData>
@@ -19133,28 +19133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>562.300361110421</v>
+        <v>628.0808123401837</v>
       </c>
       <c r="AB2" t="n">
-        <v>769.3641610124249</v>
+        <v>859.3678764136795</v>
       </c>
       <c r="AC2" t="n">
-        <v>695.9371252947802</v>
+        <v>777.351012419147</v>
       </c>
       <c r="AD2" t="n">
-        <v>562300.361110421</v>
+        <v>628080.8123401836</v>
       </c>
       <c r="AE2" t="n">
-        <v>769364.161012425</v>
+        <v>859367.8764136794</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.980514899412576e-06</v>
+        <v>2.940754075206326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.357421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>695937.1252947802</v>
+        <v>777351.012419147</v>
       </c>
     </row>
     <row r="3">
@@ -19239,28 +19239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.790938599467</v>
+        <v>410.1049641852838</v>
       </c>
       <c r="AB3" t="n">
-        <v>493.6500791646392</v>
+        <v>561.1237045524178</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.5368084514029</v>
+        <v>507.5708457319999</v>
       </c>
       <c r="AD3" t="n">
-        <v>360790.938599467</v>
+        <v>410104.9641852839</v>
       </c>
       <c r="AE3" t="n">
-        <v>493650.0791646392</v>
+        <v>561123.7045524179</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.650538355233342e-06</v>
+        <v>3.935633845498968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.22005208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>446536.8084514029</v>
+        <v>507570.8457319999</v>
       </c>
     </row>
     <row r="4">
@@ -19345,28 +19345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>316.8074596502005</v>
+        <v>366.0361443814458</v>
       </c>
       <c r="AB4" t="n">
-        <v>433.4699428521093</v>
+        <v>500.8268011176901</v>
       </c>
       <c r="AC4" t="n">
-        <v>392.100179885189</v>
+        <v>453.028594133847</v>
       </c>
       <c r="AD4" t="n">
-        <v>316807.4596502006</v>
+        <v>366036.1443814458</v>
       </c>
       <c r="AE4" t="n">
-        <v>433469.9428521093</v>
+        <v>500826.8011176902</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.887081612991542e-06</v>
+        <v>4.286863492608075e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.220703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>392100.179885189</v>
+        <v>453028.594133847</v>
       </c>
     </row>
     <row r="5">
@@ -19451,28 +19451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>293.0380946994287</v>
+        <v>342.3520307766944</v>
       </c>
       <c r="AB5" t="n">
-        <v>400.9476490960901</v>
+        <v>468.4211520143203</v>
       </c>
       <c r="AC5" t="n">
-        <v>362.6817681999183</v>
+        <v>423.7156946992888</v>
       </c>
       <c r="AD5" t="n">
-        <v>293038.0946994287</v>
+        <v>342352.0307766945</v>
       </c>
       <c r="AE5" t="n">
-        <v>400947.6490960901</v>
+        <v>468421.1520143203</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.003114191260815e-06</v>
+        <v>4.459153677096598e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.78776041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>362681.7681999183</v>
+        <v>423715.6946992888</v>
       </c>
     </row>
     <row r="6">
@@ -19557,28 +19557,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>282.6738984614272</v>
+        <v>323.9253034258633</v>
       </c>
       <c r="AB6" t="n">
-        <v>386.7668985671885</v>
+        <v>443.2088907230761</v>
       </c>
       <c r="AC6" t="n">
-        <v>349.8544085986867</v>
+        <v>400.90965624005</v>
       </c>
       <c r="AD6" t="n">
-        <v>282673.8984614272</v>
+        <v>323925.3034258633</v>
       </c>
       <c r="AE6" t="n">
-        <v>386766.8985671885</v>
+        <v>443208.8907230761</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.081530719284989e-06</v>
+        <v>4.575589925275805e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.51106770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>349854.4085986867</v>
+        <v>400909.65624005</v>
       </c>
     </row>
     <row r="7">
@@ -19663,28 +19663,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>275.5667492961835</v>
+        <v>316.6475620600274</v>
       </c>
       <c r="AB7" t="n">
-        <v>377.0425835340099</v>
+        <v>433.2511639150505</v>
       </c>
       <c r="AC7" t="n">
-        <v>341.0581685441128</v>
+        <v>391.9022809028249</v>
       </c>
       <c r="AD7" t="n">
-        <v>275566.7492961835</v>
+        <v>316647.5620600274</v>
       </c>
       <c r="AE7" t="n">
-        <v>377042.5835340099</v>
+        <v>433251.1639150506</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.133576206793419e-06</v>
+        <v>4.652869313343984e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>341058.1685441128</v>
+        <v>391902.2809028249</v>
       </c>
     </row>
     <row r="8">
@@ -19769,28 +19769,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>269.5894305395648</v>
+        <v>310.6702433034087</v>
       </c>
       <c r="AB8" t="n">
-        <v>368.8641523105117</v>
+        <v>425.0727326915522</v>
       </c>
       <c r="AC8" t="n">
-        <v>333.6602753180849</v>
+        <v>384.504387676797</v>
       </c>
       <c r="AD8" t="n">
-        <v>269589.4305395648</v>
+        <v>310670.2433034087</v>
       </c>
       <c r="AE8" t="n">
-        <v>368864.1523105117</v>
+        <v>425072.7326915523</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.173182524247253e-06</v>
+        <v>4.711678484378661e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.20833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>333660.2753180849</v>
+        <v>384504.3876767971</v>
       </c>
     </row>
     <row r="9">
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>264.8467074041889</v>
+        <v>305.9275201680329</v>
       </c>
       <c r="AB9" t="n">
-        <v>362.3749492825127</v>
+        <v>418.5835296635533</v>
       </c>
       <c r="AC9" t="n">
-        <v>327.7903927194246</v>
+        <v>378.6345050781366</v>
       </c>
       <c r="AD9" t="n">
-        <v>264846.7074041889</v>
+        <v>305927.5201680328</v>
       </c>
       <c r="AE9" t="n">
-        <v>362374.9492825127</v>
+        <v>418583.5296635533</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.201046265169548e-06</v>
+        <v>4.753051770533709e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.12044270833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>327790.3927194246</v>
+        <v>378634.5050781366</v>
       </c>
     </row>
     <row r="10">
@@ -19981,28 +19981,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>261.6568816749374</v>
+        <v>302.7376944387813</v>
       </c>
       <c r="AB10" t="n">
-        <v>358.0104889945715</v>
+        <v>414.219069375612</v>
       </c>
       <c r="AC10" t="n">
-        <v>323.8424703958059</v>
+        <v>374.686582754518</v>
       </c>
       <c r="AD10" t="n">
-        <v>261656.8816749374</v>
+        <v>302737.6944387813</v>
       </c>
       <c r="AE10" t="n">
-        <v>358010.4889945714</v>
+        <v>414219.069375612</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.218162563164673e-06</v>
+        <v>4.778466789171809e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.06510416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>323842.4703958059</v>
+        <v>374686.582754518</v>
       </c>
     </row>
     <row r="11">
@@ -20087,28 +20087,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>257.416374011339</v>
+        <v>298.4971867751861</v>
       </c>
       <c r="AB11" t="n">
-        <v>352.2084393310748</v>
+        <v>408.4170197122863</v>
       </c>
       <c r="AC11" t="n">
-        <v>318.5941602090714</v>
+        <v>369.4382725678323</v>
       </c>
       <c r="AD11" t="n">
-        <v>257416.374011339</v>
+        <v>298497.1867751861</v>
       </c>
       <c r="AE11" t="n">
-        <v>352208.4393310748</v>
+        <v>408417.0197122864</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.238463288693774e-06</v>
+        <v>4.808610183370488e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.00325520833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>318594.1602090715</v>
+        <v>369438.2725678323</v>
       </c>
     </row>
     <row r="12">
@@ -20193,28 +20193,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>245.6025940585706</v>
+        <v>294.8311892812679</v>
       </c>
       <c r="AB12" t="n">
-        <v>336.0443044125174</v>
+        <v>403.4010402087125</v>
       </c>
       <c r="AC12" t="n">
-        <v>303.9727076406302</v>
+        <v>364.9010111081081</v>
       </c>
       <c r="AD12" t="n">
-        <v>245602.5940585707</v>
+        <v>294831.1892812679</v>
       </c>
       <c r="AE12" t="n">
-        <v>336044.3044125173</v>
+        <v>403401.0402087125</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.252693699236231e-06</v>
+        <v>4.829740111656816e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.957682291666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>303972.7076406302</v>
+        <v>364901.0111081081</v>
       </c>
     </row>
     <row r="13">
@@ -20299,28 +20299,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>241.6001815682028</v>
+        <v>290.8287767909</v>
       </c>
       <c r="AB13" t="n">
-        <v>330.5680270692217</v>
+        <v>397.924762865414</v>
       </c>
       <c r="AC13" t="n">
-        <v>299.0190785209733</v>
+        <v>359.9473819884504</v>
       </c>
       <c r="AD13" t="n">
-        <v>241600.1815682028</v>
+        <v>290828.7767908999</v>
       </c>
       <c r="AE13" t="n">
-        <v>330568.0270692217</v>
+        <v>397924.762865414</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.268018756743494e-06</v>
+        <v>4.852495419042093e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.912109375</v>
       </c>
       <c r="AH13" t="n">
-        <v>299019.0785209733</v>
+        <v>359947.3819884504</v>
       </c>
     </row>
     <row r="14">
@@ -20405,28 +20405,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>239.8940315526219</v>
+        <v>289.122626775319</v>
       </c>
       <c r="AB14" t="n">
-        <v>328.2335973478787</v>
+        <v>395.5903331440697</v>
       </c>
       <c r="AC14" t="n">
-        <v>296.9074434958419</v>
+        <v>357.8357469633187</v>
       </c>
       <c r="AD14" t="n">
-        <v>239894.0315526219</v>
+        <v>289122.626775319</v>
       </c>
       <c r="AE14" t="n">
-        <v>328233.5973478787</v>
+        <v>395590.3331440698</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.271700751079655e-06</v>
+        <v>4.85796260328401e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.90234375</v>
       </c>
       <c r="AH14" t="n">
-        <v>296907.4434958419</v>
+        <v>357835.7469633187</v>
       </c>
     </row>
     <row r="15">
@@ -20511,28 +20511,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>238.0998784308543</v>
+        <v>279.2659425407218</v>
       </c>
       <c r="AB15" t="n">
-        <v>325.7787578942281</v>
+        <v>382.1039829280753</v>
       </c>
       <c r="AC15" t="n">
-        <v>294.6868904742581</v>
+        <v>345.6365150837273</v>
       </c>
       <c r="AD15" t="n">
-        <v>238099.8784308544</v>
+        <v>279265.9425407218</v>
       </c>
       <c r="AE15" t="n">
-        <v>325778.7578942281</v>
+        <v>382103.9829280753</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.27986084663547e-06</v>
+        <v>4.870079065657989e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.876302083333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>294686.8904742581</v>
+        <v>345636.5150837273</v>
       </c>
     </row>
     <row r="16">
@@ -20617,28 +20617,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>239.1012643736937</v>
+        <v>280.2673284835612</v>
       </c>
       <c r="AB16" t="n">
-        <v>327.1488983192501</v>
+        <v>383.474123353098</v>
       </c>
       <c r="AC16" t="n">
-        <v>295.9262666201207</v>
+        <v>346.87589122959</v>
       </c>
       <c r="AD16" t="n">
-        <v>239101.2643736937</v>
+        <v>280267.3284835612</v>
       </c>
       <c r="AE16" t="n">
-        <v>327148.8983192501</v>
+        <v>383474.1233530981</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.280159386716779e-06</v>
+        <v>4.870522350866792e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.876302083333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>295926.2666201207</v>
+        <v>346875.8912295901</v>
       </c>
     </row>
   </sheetData>
@@ -20914,28 +20914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>663.5311708479408</v>
+        <v>738.7577259427609</v>
       </c>
       <c r="AB2" t="n">
-        <v>907.8726208834313</v>
+        <v>1010.800912325549</v>
       </c>
       <c r="AC2" t="n">
-        <v>821.2265321535422</v>
+        <v>914.3314919211881</v>
       </c>
       <c r="AD2" t="n">
-        <v>663531.1708479407</v>
+        <v>738757.7259427609</v>
       </c>
       <c r="AE2" t="n">
-        <v>907872.6208834313</v>
+        <v>1010800.912325549</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.792695071717326e-06</v>
+        <v>2.636054985601766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.705078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>821226.5321535422</v>
+        <v>914331.4919211881</v>
       </c>
     </row>
     <row r="3">
@@ -21020,28 +21020,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>398.3046191626256</v>
+        <v>456.7288211595808</v>
       </c>
       <c r="AB3" t="n">
-        <v>544.9779518979359</v>
+        <v>624.9165225640519</v>
       </c>
       <c r="AC3" t="n">
-        <v>492.9660210501557</v>
+        <v>565.275366726386</v>
       </c>
       <c r="AD3" t="n">
-        <v>398304.6191626256</v>
+        <v>456728.8211595808</v>
       </c>
       <c r="AE3" t="n">
-        <v>544977.9518979359</v>
+        <v>624916.5225640519</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.495791131880147e-06</v>
+        <v>3.669917299382595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.71809895833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>492966.0210501557</v>
+        <v>565275.366726386</v>
       </c>
     </row>
     <row r="4">
@@ -21126,28 +21126,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>344.7735894984124</v>
+        <v>394.9246262282927</v>
       </c>
       <c r="AB4" t="n">
-        <v>471.7344354890058</v>
+        <v>540.3532964504175</v>
       </c>
       <c r="AC4" t="n">
-        <v>426.7127630493728</v>
+        <v>488.7827362278035</v>
       </c>
       <c r="AD4" t="n">
-        <v>344773.5894984124</v>
+        <v>394924.6262282926</v>
       </c>
       <c r="AE4" t="n">
-        <v>471734.4354890058</v>
+        <v>540353.2964504175</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.754564803170139e-06</v>
+        <v>4.050429098130942e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.5234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>426712.7630493728</v>
+        <v>488782.7362278035</v>
       </c>
     </row>
     <row r="5">
@@ -21232,28 +21232,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>316.1759539795343</v>
+        <v>366.2416498548428</v>
       </c>
       <c r="AB5" t="n">
-        <v>432.6058889334396</v>
+        <v>501.1079827726536</v>
       </c>
       <c r="AC5" t="n">
-        <v>391.3185900598099</v>
+        <v>453.2829402063018</v>
       </c>
       <c r="AD5" t="n">
-        <v>316175.9539795343</v>
+        <v>366241.6498548428</v>
       </c>
       <c r="AE5" t="n">
-        <v>432605.8889334396</v>
+        <v>501107.9827726536</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.88989933811758e-06</v>
+        <v>4.249430747212594e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.98307291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>391318.5900598099</v>
+        <v>453282.9402063017</v>
       </c>
     </row>
     <row r="6">
@@ -21338,28 +21338,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>305.3398531386147</v>
+        <v>355.4055490139233</v>
       </c>
       <c r="AB6" t="n">
-        <v>417.7794577078638</v>
+        <v>486.2815515470778</v>
       </c>
       <c r="AC6" t="n">
-        <v>377.9071726213762</v>
+        <v>439.871522767868</v>
       </c>
       <c r="AD6" t="n">
-        <v>305339.8531386147</v>
+        <v>355405.5490139233</v>
       </c>
       <c r="AE6" t="n">
-        <v>417779.4577078638</v>
+        <v>486281.5515470778</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.966536906178595e-06</v>
+        <v>4.362121882787651e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.69986979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>377907.1726213762</v>
+        <v>439871.522767868</v>
       </c>
     </row>
     <row r="7">
@@ -21444,28 +21444,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>297.2035943453666</v>
+        <v>338.9108736075795</v>
       </c>
       <c r="AB7" t="n">
-        <v>406.647069480537</v>
+        <v>463.7128089623974</v>
       </c>
       <c r="AC7" t="n">
-        <v>367.8372439020604</v>
+        <v>419.4567093000404</v>
       </c>
       <c r="AD7" t="n">
-        <v>297203.5943453666</v>
+        <v>338910.8736075795</v>
       </c>
       <c r="AE7" t="n">
-        <v>406647.069480537</v>
+        <v>463712.8089623974</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.023576317521717e-06</v>
+        <v>4.445995056211833e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.498046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>367837.2439020604</v>
+        <v>419456.7093000404</v>
       </c>
     </row>
     <row r="8">
@@ -21550,28 +21550,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>291.1612912533496</v>
+        <v>332.8685705155626</v>
       </c>
       <c r="AB8" t="n">
-        <v>398.3797238224403</v>
+        <v>455.4454633043007</v>
       </c>
       <c r="AC8" t="n">
-        <v>360.35892211028</v>
+        <v>411.9783875082599</v>
       </c>
       <c r="AD8" t="n">
-        <v>291161.2912533496</v>
+        <v>332868.5705155625</v>
       </c>
       <c r="AE8" t="n">
-        <v>398379.7238224403</v>
+        <v>455445.4633043007</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.06238261788849e-06</v>
+        <v>4.503057488729483e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.36458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>360358.92211028</v>
+        <v>411978.3875082599</v>
       </c>
     </row>
     <row r="9">
@@ -21656,28 +21656,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>286.241528743227</v>
+        <v>327.9488080054399</v>
       </c>
       <c r="AB9" t="n">
-        <v>391.6482877114867</v>
+        <v>448.7140271933472</v>
       </c>
       <c r="AC9" t="n">
-        <v>354.2699248141259</v>
+        <v>405.8893902121059</v>
       </c>
       <c r="AD9" t="n">
-        <v>286241.528743227</v>
+        <v>327948.8080054399</v>
       </c>
       <c r="AE9" t="n">
-        <v>391648.2877114867</v>
+        <v>448714.0271933472</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.095338722220071e-06</v>
+        <v>4.551517544485677e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.25390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>354269.9248141259</v>
+        <v>405889.3902121059</v>
       </c>
     </row>
     <row r="10">
@@ -21762,28 +21762,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>282.4665185669099</v>
+        <v>324.1737978291227</v>
       </c>
       <c r="AB10" t="n">
-        <v>386.4831522465547</v>
+        <v>443.548891728415</v>
       </c>
       <c r="AC10" t="n">
-        <v>349.5977426286537</v>
+        <v>401.2172080266337</v>
       </c>
       <c r="AD10" t="n">
-        <v>282466.5185669099</v>
+        <v>324173.7978291227</v>
       </c>
       <c r="AE10" t="n">
-        <v>386483.1522465547</v>
+        <v>443548.891728415</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.115229388739724e-06</v>
+        <v>4.580765625474623e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.18880208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>349597.7426286538</v>
+        <v>401217.2080266337</v>
       </c>
     </row>
     <row r="11">
@@ -21868,28 +21868,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>279.0697508815493</v>
+        <v>320.7770301437623</v>
       </c>
       <c r="AB11" t="n">
-        <v>381.8355448446303</v>
+        <v>438.9012843264907</v>
       </c>
       <c r="AC11" t="n">
-        <v>345.3936963542111</v>
+        <v>397.0131617521911</v>
       </c>
       <c r="AD11" t="n">
-        <v>279069.7508815493</v>
+        <v>320777.0301437622</v>
       </c>
       <c r="AE11" t="n">
-        <v>381835.5448446303</v>
+        <v>438901.2843264907</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.134827545457617e-06</v>
+        <v>4.609583587625496e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.12369791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>345393.6963542111</v>
+        <v>397013.1617521911</v>
       </c>
     </row>
     <row r="12">
@@ -21974,28 +21974,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>276.0479379919755</v>
+        <v>317.7552172541884</v>
       </c>
       <c r="AB12" t="n">
-        <v>377.7009671361395</v>
+        <v>434.7667066179998</v>
       </c>
       <c r="AC12" t="n">
-        <v>341.6537169393023</v>
+        <v>393.2731823372823</v>
       </c>
       <c r="AD12" t="n">
-        <v>276047.9379919755</v>
+        <v>317755.2172541884</v>
       </c>
       <c r="AE12" t="n">
-        <v>377700.9671361395</v>
+        <v>434766.7066179998</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.149063022476584e-06</v>
+        <v>4.630516037745036e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH12" t="n">
-        <v>341653.7169393023</v>
+        <v>393273.1823372823</v>
       </c>
     </row>
     <row r="13">
@@ -22080,28 +22080,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>272.1857626835508</v>
+        <v>313.8930419457637</v>
       </c>
       <c r="AB13" t="n">
-        <v>372.4165684920036</v>
+        <v>429.482307973864</v>
       </c>
       <c r="AC13" t="n">
-        <v>336.8736538850627</v>
+        <v>388.4931192830427</v>
       </c>
       <c r="AD13" t="n">
-        <v>272185.7626835508</v>
+        <v>313893.0419457637</v>
       </c>
       <c r="AE13" t="n">
-        <v>372416.5684920036</v>
+        <v>429482.307973864</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.164566041969843e-06</v>
+        <v>4.653312336162891e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.029296875</v>
       </c>
       <c r="AH13" t="n">
-        <v>336873.6538850627</v>
+        <v>388493.1192830427</v>
       </c>
     </row>
     <row r="14">
@@ -22186,28 +22186,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>261.206598790845</v>
+        <v>311.186953811582</v>
       </c>
       <c r="AB14" t="n">
-        <v>357.3943920874775</v>
+        <v>425.7797188044938</v>
       </c>
       <c r="AC14" t="n">
-        <v>323.2851729128275</v>
+        <v>385.1439000273806</v>
       </c>
       <c r="AD14" t="n">
-        <v>261206.598790845</v>
+        <v>311186.953811582</v>
       </c>
       <c r="AE14" t="n">
-        <v>357394.3920874775</v>
+        <v>425779.7188044938</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.177923989583532e-06</v>
+        <v>4.672954429768214e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>323285.1729128275</v>
+        <v>385143.9000273806</v>
       </c>
     </row>
     <row r="15">
@@ -22292,28 +22292,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>258.3688542747399</v>
+        <v>308.3492092954768</v>
       </c>
       <c r="AB15" t="n">
-        <v>353.51166484809</v>
+        <v>421.8969915651063</v>
       </c>
       <c r="AC15" t="n">
-        <v>319.7730077117253</v>
+        <v>381.6317348262784</v>
       </c>
       <c r="AD15" t="n">
-        <v>258368.8542747399</v>
+        <v>308349.2092954768</v>
       </c>
       <c r="AE15" t="n">
-        <v>353511.66484809</v>
+        <v>421896.9915651063</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.184944224825762e-06</v>
+        <v>4.683277281881958e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.964192708333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>319773.0077117253</v>
+        <v>381631.7348262784</v>
       </c>
     </row>
     <row r="16">
@@ -22398,28 +22398,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>254.8675486162036</v>
+        <v>304.8479036369437</v>
       </c>
       <c r="AB16" t="n">
-        <v>348.7210239792119</v>
+        <v>417.1063506963974</v>
       </c>
       <c r="AC16" t="n">
-        <v>315.4395788837712</v>
+        <v>377.2983059983724</v>
       </c>
       <c r="AD16" t="n">
-        <v>254867.5486162036</v>
+        <v>304847.9036369437</v>
       </c>
       <c r="AE16" t="n">
-        <v>348721.0239792119</v>
+        <v>417106.3506963974</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.199667218180994e-06</v>
+        <v>4.70492659673162e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.918619791666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>315439.5788837711</v>
+        <v>377298.3059983724</v>
       </c>
     </row>
     <row r="17">
@@ -22504,28 +22504,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>252.0404097533624</v>
+        <v>293.8329403615991</v>
       </c>
       <c r="AB17" t="n">
-        <v>344.8528078625105</v>
+        <v>402.0351919971874</v>
       </c>
       <c r="AC17" t="n">
-        <v>311.9405398841711</v>
+        <v>363.6655175329109</v>
       </c>
       <c r="AD17" t="n">
-        <v>252040.4097533624</v>
+        <v>293832.9403615991</v>
       </c>
       <c r="AE17" t="n">
-        <v>344852.8078625106</v>
+        <v>402035.1919971874</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.206882459957732e-06</v>
+        <v>4.715536194737414e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>311940.5398841711</v>
+        <v>363665.5175329109</v>
       </c>
     </row>
     <row r="18">
@@ -22610,28 +22610,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>252.8728135523348</v>
+        <v>302.853168573075</v>
       </c>
       <c r="AB18" t="n">
-        <v>345.9917394633279</v>
+        <v>414.3770661805119</v>
       </c>
       <c r="AC18" t="n">
-        <v>312.9707734515073</v>
+        <v>374.8295005661082</v>
       </c>
       <c r="AD18" t="n">
-        <v>252872.8135523348</v>
+        <v>302853.168573075</v>
       </c>
       <c r="AE18" t="n">
-        <v>345991.7394633279</v>
+        <v>414377.0661805118</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.204542381543654e-06</v>
+        <v>4.712095244032831e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.905598958333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>312970.7734515073</v>
+        <v>374829.5005661082</v>
       </c>
     </row>
     <row r="19">
@@ -22716,28 +22716,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>252.372859202293</v>
+        <v>302.353214223033</v>
       </c>
       <c r="AB19" t="n">
-        <v>345.3076798651717</v>
+        <v>413.6930065823553</v>
       </c>
       <c r="AC19" t="n">
-        <v>312.3519995413153</v>
+        <v>374.2107266559159</v>
       </c>
       <c r="AD19" t="n">
-        <v>252372.859202293</v>
+        <v>302353.2142230331</v>
       </c>
       <c r="AE19" t="n">
-        <v>345307.6798651717</v>
+        <v>413693.0065823554</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.204444878276402e-06</v>
+        <v>4.711951871086809e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.905598958333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>312351.9995413153</v>
+        <v>374210.726655916</v>
       </c>
     </row>
     <row r="20">
@@ -22822,28 +22822,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>252.6948148466973</v>
+        <v>302.6751698674374</v>
       </c>
       <c r="AB20" t="n">
-        <v>345.7481937815261</v>
+        <v>414.13352049871</v>
       </c>
       <c r="AC20" t="n">
-        <v>312.7504714277581</v>
+        <v>374.6091985423589</v>
       </c>
       <c r="AD20" t="n">
-        <v>252694.8148466973</v>
+        <v>302675.1698674374</v>
       </c>
       <c r="AE20" t="n">
-        <v>345748.1937815261</v>
+        <v>414133.52049871</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.204542381543654e-06</v>
+        <v>4.712095244032831e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.905598958333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>312750.4714277581</v>
+        <v>374609.1985423589</v>
       </c>
     </row>
     <row r="21">
@@ -22928,28 +22928,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>253.4267419380931</v>
+        <v>303.4070969588332</v>
       </c>
       <c r="AB21" t="n">
-        <v>346.7496487183176</v>
+        <v>415.134975435502</v>
       </c>
       <c r="AC21" t="n">
-        <v>313.6563489109334</v>
+        <v>375.5150760255343</v>
       </c>
       <c r="AD21" t="n">
-        <v>253426.7419380931</v>
+        <v>303407.0969588332</v>
       </c>
       <c r="AE21" t="n">
-        <v>346749.6487183176</v>
+        <v>415134.975435502</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.204152368474642e-06</v>
+        <v>4.711521752248735e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.905598958333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>313656.3489109334</v>
+        <v>375515.0760255343</v>
       </c>
     </row>
   </sheetData>
@@ -23225,28 +23225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>926.5346070361186</v>
+        <v>1020.851213473168</v>
       </c>
       <c r="AB2" t="n">
-        <v>1267.72552516881</v>
+        <v>1396.773667050991</v>
       </c>
       <c r="AC2" t="n">
-        <v>1146.735580310647</v>
+        <v>1263.467548651798</v>
       </c>
       <c r="AD2" t="n">
-        <v>926534.6070361186</v>
+        <v>1020851.213473168</v>
       </c>
       <c r="AE2" t="n">
-        <v>1267725.52516881</v>
+        <v>1396773.667050991</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.468906417633204e-06</v>
+        <v>2.125173419896147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.85611979166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1146735.580310647</v>
+        <v>1263467.548651798</v>
       </c>
     </row>
     <row r="3">
@@ -23331,28 +23331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>484.6188396922536</v>
+        <v>544.6928061505578</v>
       </c>
       <c r="AB3" t="n">
-        <v>663.0768763412337</v>
+        <v>745.2727275258385</v>
       </c>
       <c r="AC3" t="n">
-        <v>599.7937498974665</v>
+        <v>674.1449444076144</v>
       </c>
       <c r="AD3" t="n">
-        <v>484618.8396922536</v>
+        <v>544692.8061505578</v>
       </c>
       <c r="AE3" t="n">
-        <v>663076.8763412337</v>
+        <v>745272.7275258385</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.236204855803599e-06</v>
+        <v>3.235279704648408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.701171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>599793.7498974665</v>
+        <v>674144.9444076144</v>
       </c>
     </row>
     <row r="4">
@@ -23437,28 +23437,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>409.9334992553534</v>
+        <v>461.3402191593079</v>
       </c>
       <c r="AB4" t="n">
-        <v>560.8890986707881</v>
+        <v>631.2260407478</v>
       </c>
       <c r="AC4" t="n">
-        <v>507.3586303064415</v>
+        <v>570.9827133501416</v>
       </c>
       <c r="AD4" t="n">
-        <v>409933.4992553534</v>
+        <v>461340.2191593079</v>
       </c>
       <c r="AE4" t="n">
-        <v>560889.0986707881</v>
+        <v>631226.0407478</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.523435915940486e-06</v>
+        <v>3.650837705514825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.14192708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>507358.6303064415</v>
+        <v>570982.7133501415</v>
       </c>
     </row>
     <row r="5">
@@ -23543,28 +23543,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.6522831235279</v>
+        <v>424.9736621729108</v>
       </c>
       <c r="AB5" t="n">
-        <v>511.2475381449345</v>
+        <v>581.4677130997488</v>
       </c>
       <c r="AC5" t="n">
-        <v>462.4547906448076</v>
+        <v>525.9732506565689</v>
       </c>
       <c r="AD5" t="n">
-        <v>373652.2831235279</v>
+        <v>424973.6621729108</v>
       </c>
       <c r="AE5" t="n">
-        <v>511247.5381449345</v>
+        <v>581467.7130997488</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.674768663220995e-06</v>
+        <v>3.869781763638415e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.45182291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>462454.7906448076</v>
+        <v>525973.2506565689</v>
       </c>
     </row>
     <row r="6">
@@ -23649,28 +23649,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>358.1670761729566</v>
+        <v>401.0771417231534</v>
       </c>
       <c r="AB6" t="n">
-        <v>490.0599948360471</v>
+        <v>548.7714395803132</v>
       </c>
       <c r="AC6" t="n">
-        <v>443.2893567324165</v>
+        <v>496.3974635923201</v>
       </c>
       <c r="AD6" t="n">
-        <v>358167.0761729566</v>
+        <v>401077.1417231534</v>
       </c>
       <c r="AE6" t="n">
-        <v>490059.9948360471</v>
+        <v>548771.4395803132</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.768128169005987e-06</v>
+        <v>4.004851729844014e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.06770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>443289.3567324165</v>
+        <v>496397.4635923201</v>
       </c>
     </row>
     <row r="7">
@@ -23755,28 +23755,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>339.1668157314503</v>
+        <v>390.5734461268537</v>
       </c>
       <c r="AB7" t="n">
-        <v>464.063000267647</v>
+        <v>534.3998198751107</v>
       </c>
       <c r="AC7" t="n">
-        <v>419.7734788386135</v>
+        <v>483.3974511010871</v>
       </c>
       <c r="AD7" t="n">
-        <v>339166.8157314503</v>
+        <v>390573.4461268537</v>
       </c>
       <c r="AE7" t="n">
-        <v>464063.000267647</v>
+        <v>534399.8198751106</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.832971616068344e-06</v>
+        <v>4.098665446291249e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.81380208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>419773.4788386135</v>
+        <v>483397.4511010871</v>
       </c>
     </row>
     <row r="8">
@@ -23861,28 +23861,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>332.023424282009</v>
+        <v>383.4300546774124</v>
       </c>
       <c r="AB8" t="n">
-        <v>454.2890969423324</v>
+        <v>524.625916549796</v>
       </c>
       <c r="AC8" t="n">
-        <v>410.9323831289075</v>
+        <v>474.5563553913812</v>
       </c>
       <c r="AD8" t="n">
-        <v>332023.424282009</v>
+        <v>383430.0546774124</v>
       </c>
       <c r="AE8" t="n">
-        <v>454289.0969423325</v>
+        <v>524625.916549796</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.877392671240235e-06</v>
+        <v>4.16293260763101e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.64778645833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>410932.3831289075</v>
+        <v>474556.3553913812</v>
       </c>
     </row>
     <row r="9">
@@ -23967,28 +23967,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>325.6689311208594</v>
+        <v>368.664248017077</v>
       </c>
       <c r="AB9" t="n">
-        <v>445.5945990587948</v>
+        <v>504.4226884557102</v>
       </c>
       <c r="AC9" t="n">
-        <v>403.0676759205703</v>
+        <v>456.2812950311861</v>
       </c>
       <c r="AD9" t="n">
-        <v>325668.9311208595</v>
+        <v>368664.248017077</v>
       </c>
       <c r="AE9" t="n">
-        <v>445594.5990587948</v>
+        <v>504422.6884557102</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.917578668185992e-06</v>
+        <v>4.221072603165072e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.50130208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>403067.6759205703</v>
+        <v>456281.2950311861</v>
       </c>
     </row>
     <row r="10">
@@ -24073,28 +24073,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>321.0597644557737</v>
+        <v>363.8844891513991</v>
       </c>
       <c r="AB10" t="n">
-        <v>439.2881338855424</v>
+        <v>497.8828115076108</v>
       </c>
       <c r="AC10" t="n">
-        <v>397.3630909322737</v>
+        <v>450.3655747602384</v>
       </c>
       <c r="AD10" t="n">
-        <v>321059.7644557738</v>
+        <v>363884.4891513991</v>
       </c>
       <c r="AE10" t="n">
-        <v>439288.1338855424</v>
+        <v>497882.8115076108</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.9456241648835e-06</v>
+        <v>4.261648056722803e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.400390625</v>
       </c>
       <c r="AH10" t="n">
-        <v>397363.0909322737</v>
+        <v>450365.5747602384</v>
       </c>
     </row>
     <row r="11">
@@ -24179,28 +24179,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>317.5443479187142</v>
+        <v>360.3690726143395</v>
       </c>
       <c r="AB11" t="n">
-        <v>434.4781858903057</v>
+        <v>493.072863512374</v>
       </c>
       <c r="AC11" t="n">
-        <v>393.0121976228979</v>
+        <v>446.0146814508626</v>
       </c>
       <c r="AD11" t="n">
-        <v>317544.3479187142</v>
+        <v>360369.0726143395</v>
       </c>
       <c r="AE11" t="n">
-        <v>434478.1858903057</v>
+        <v>493072.863512374</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.966423006394067e-06</v>
+        <v>4.291739248790783e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.32877604166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>393012.1976228979</v>
+        <v>446014.6814508626</v>
       </c>
     </row>
     <row r="12">
@@ -24285,28 +24285,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>314.9229338416833</v>
+        <v>357.7476585373086</v>
       </c>
       <c r="AB12" t="n">
-        <v>430.8914515014848</v>
+        <v>489.4861291235533</v>
       </c>
       <c r="AC12" t="n">
-        <v>389.7677761301329</v>
+        <v>442.7702599580976</v>
       </c>
       <c r="AD12" t="n">
-        <v>314922.9338416833</v>
+        <v>357747.6585373086</v>
       </c>
       <c r="AE12" t="n">
-        <v>430891.4515014848</v>
+        <v>489486.1291235533</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.979692855502619e-06</v>
+        <v>4.310937701648636e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.27994791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>389767.7761301329</v>
+        <v>442770.2599580976</v>
       </c>
     </row>
     <row r="13">
@@ -24391,28 +24391,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>311.0061721193679</v>
+        <v>353.8308968149933</v>
       </c>
       <c r="AB13" t="n">
-        <v>425.5323653176812</v>
+        <v>484.1270429397496</v>
       </c>
       <c r="AC13" t="n">
-        <v>384.9201536101867</v>
+        <v>437.9226374381514</v>
       </c>
       <c r="AD13" t="n">
-        <v>311006.1721193679</v>
+        <v>353830.8968149932</v>
       </c>
       <c r="AE13" t="n">
-        <v>425532.3653176812</v>
+        <v>484127.0429397495</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.001903383088565e-06</v>
+        <v>4.343071282318516e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.205078125</v>
       </c>
       <c r="AH13" t="n">
-        <v>384920.1536101867</v>
+        <v>437922.6374381514</v>
       </c>
     </row>
     <row r="14">
@@ -24497,28 +24497,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>309.517631770261</v>
+        <v>352.3423564658863</v>
       </c>
       <c r="AB14" t="n">
-        <v>423.4956787422677</v>
+        <v>482.090356364336</v>
       </c>
       <c r="AC14" t="n">
-        <v>383.077845543023</v>
+        <v>436.0803293709877</v>
       </c>
       <c r="AD14" t="n">
-        <v>309517.631770261</v>
+        <v>352342.3564658863</v>
       </c>
       <c r="AE14" t="n">
-        <v>423495.6787422677</v>
+        <v>482090.356364336</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.006514890934799e-06</v>
+        <v>4.34974308508472e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.18880208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>383077.845543023</v>
+        <v>436080.3293709877</v>
       </c>
     </row>
     <row r="15">
@@ -24603,28 +24603,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>306.5214181086624</v>
+        <v>349.3461428042878</v>
       </c>
       <c r="AB15" t="n">
-        <v>419.3961270268506</v>
+        <v>477.9908046489192</v>
       </c>
       <c r="AC15" t="n">
-        <v>379.3695492895685</v>
+        <v>432.3720331175333</v>
       </c>
       <c r="AD15" t="n">
-        <v>306521.4181086624</v>
+        <v>349346.1428042877</v>
       </c>
       <c r="AE15" t="n">
-        <v>419396.1270268506</v>
+        <v>477990.8046489191</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.022702224599132e-06</v>
+        <v>4.373162474386497e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.13671875</v>
       </c>
       <c r="AH15" t="n">
-        <v>379369.5492895685</v>
+        <v>432372.0331175333</v>
       </c>
     </row>
     <row r="16">
@@ -24709,28 +24709,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>304.3084365268695</v>
+        <v>347.1331612224948</v>
       </c>
       <c r="AB16" t="n">
-        <v>416.3682279967846</v>
+        <v>474.962905618853</v>
       </c>
       <c r="AC16" t="n">
-        <v>376.630628693249</v>
+        <v>429.6331125212137</v>
       </c>
       <c r="AD16" t="n">
-        <v>304308.4365268695</v>
+        <v>347133.1612224948</v>
       </c>
       <c r="AE16" t="n">
-        <v>416368.2279967846</v>
+        <v>474962.9056188531</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.029854767381047e-06</v>
+        <v>4.383510576636119e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.11067708333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>376630.628693249</v>
+        <v>429633.1125212137</v>
       </c>
     </row>
     <row r="17">
@@ -24815,28 +24815,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>300.7465247037484</v>
+        <v>343.5712493993737</v>
       </c>
       <c r="AB17" t="n">
-        <v>411.4946630999311</v>
+        <v>470.0893407219995</v>
       </c>
       <c r="AC17" t="n">
-        <v>372.2221899900599</v>
+        <v>425.2246738180246</v>
       </c>
       <c r="AD17" t="n">
-        <v>300746.5247037484</v>
+        <v>343571.2493993737</v>
       </c>
       <c r="AE17" t="n">
-        <v>411494.6630999311</v>
+        <v>470089.3407219995</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.045477426615229e-06</v>
+        <v>4.406113010497137e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.05859375</v>
       </c>
       <c r="AH17" t="n">
-        <v>372222.1899900599</v>
+        <v>425224.6738180246</v>
       </c>
     </row>
     <row r="18">
@@ -24921,28 +24921,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>300.3435585043224</v>
+        <v>343.1682831999477</v>
       </c>
       <c r="AB18" t="n">
-        <v>410.9433069682623</v>
+        <v>469.5379845903308</v>
       </c>
       <c r="AC18" t="n">
-        <v>371.7234545137644</v>
+        <v>424.7259383417291</v>
       </c>
       <c r="AD18" t="n">
-        <v>300343.5585043224</v>
+        <v>343168.2831999477</v>
       </c>
       <c r="AE18" t="n">
-        <v>410943.3069682623</v>
+        <v>469537.9845903309</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.042936391679549e-06</v>
+        <v>4.402436711013718e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.068359375</v>
       </c>
       <c r="AH18" t="n">
-        <v>371723.4545137644</v>
+        <v>424725.9383417291</v>
       </c>
     </row>
     <row r="19">
@@ -25027,28 +25027,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>297.8922999041818</v>
+        <v>340.717024599807</v>
       </c>
       <c r="AB19" t="n">
-        <v>407.5893868096528</v>
+        <v>466.1840644317211</v>
       </c>
       <c r="AC19" t="n">
-        <v>368.6896277878359</v>
+        <v>421.6921116158007</v>
       </c>
       <c r="AD19" t="n">
-        <v>297892.2999041817</v>
+        <v>340717.024599807</v>
       </c>
       <c r="AE19" t="n">
-        <v>407589.3868096528</v>
+        <v>466184.0644317211</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.052441744587093e-06</v>
+        <v>4.416188794266505e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.03580729166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>368689.627787836</v>
+        <v>421692.1116158008</v>
       </c>
     </row>
     <row r="20">
@@ -25133,28 +25133,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>295.7499456233073</v>
+        <v>338.5746703189326</v>
       </c>
       <c r="AB20" t="n">
-        <v>404.65812316856</v>
+        <v>463.2528007906283</v>
       </c>
       <c r="AC20" t="n">
-        <v>366.0381198345946</v>
+        <v>419.0406036625594</v>
       </c>
       <c r="AD20" t="n">
-        <v>295749.9456233073</v>
+        <v>338574.6703189326</v>
       </c>
       <c r="AE20" t="n">
-        <v>404658.12316856</v>
+        <v>463252.8007906283</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.059688399774033e-06</v>
+        <v>4.426673055756254e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.01302083333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>366038.1198345946</v>
+        <v>419040.6036625594</v>
       </c>
     </row>
     <row r="21">
@@ -25239,28 +25239,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>285.9145550749092</v>
+        <v>337.235844615741</v>
       </c>
       <c r="AB21" t="n">
-        <v>391.2009079134343</v>
+        <v>461.4209603987002</v>
       </c>
       <c r="AC21" t="n">
-        <v>353.8652423160979</v>
+        <v>417.3835915466328</v>
       </c>
       <c r="AD21" t="n">
-        <v>285914.5550749092</v>
+        <v>337235.844615741</v>
       </c>
       <c r="AE21" t="n">
-        <v>391200.9079134343</v>
+        <v>461420.9603987002</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.066746830150922e-06</v>
+        <v>4.436884998765751e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.990234375</v>
       </c>
       <c r="AH21" t="n">
-        <v>353865.2423160979</v>
+        <v>417383.5915466328</v>
       </c>
     </row>
     <row r="22">
@@ -25345,28 +25345,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>282.7935482220847</v>
+        <v>334.1148377629165</v>
       </c>
       <c r="AB22" t="n">
-        <v>386.930608648295</v>
+        <v>457.150661133561</v>
       </c>
       <c r="AC22" t="n">
-        <v>350.0024944194209</v>
+        <v>413.5208436499558</v>
       </c>
       <c r="AD22" t="n">
-        <v>282793.5482220846</v>
+        <v>334114.8377629165</v>
       </c>
       <c r="AE22" t="n">
-        <v>386930.608648295</v>
+        <v>457150.6611335609</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.073522923312736e-06</v>
+        <v>4.446688464054867e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.967447916666666</v>
       </c>
       <c r="AH22" t="n">
-        <v>350002.494419421</v>
+        <v>413520.8436499558</v>
       </c>
     </row>
     <row r="23">
@@ -25451,28 +25451,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>282.2109386810671</v>
+        <v>333.5322282218989</v>
       </c>
       <c r="AB23" t="n">
-        <v>386.1334565713558</v>
+        <v>456.3535090566217</v>
       </c>
       <c r="AC23" t="n">
-        <v>349.2814214178948</v>
+        <v>412.7997706484296</v>
       </c>
       <c r="AD23" t="n">
-        <v>282210.9386810671</v>
+        <v>333532.2282218989</v>
       </c>
       <c r="AE23" t="n">
-        <v>386133.4565713558</v>
+        <v>456353.5090566217</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.073711148122787e-06</v>
+        <v>4.44696078253512e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.967447916666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>349281.4214178948</v>
+        <v>412799.7706484296</v>
       </c>
     </row>
     <row r="24">
@@ -25557,28 +25557,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>279.3784460770549</v>
+        <v>330.6997356178868</v>
       </c>
       <c r="AB24" t="n">
-        <v>382.257915229792</v>
+        <v>452.477967715058</v>
       </c>
       <c r="AC24" t="n">
-        <v>345.7757563026135</v>
+        <v>409.2941055331484</v>
       </c>
       <c r="AD24" t="n">
-        <v>279378.4460770549</v>
+        <v>330699.7356178868</v>
       </c>
       <c r="AE24" t="n">
-        <v>382257.9152297921</v>
+        <v>452477.967715058</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.080863690904701e-06</v>
+        <v>4.457308884784742e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.944661458333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>345775.7563026135</v>
+        <v>409294.1055331484</v>
       </c>
     </row>
     <row r="25">
@@ -25663,28 +25663,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>278.6910638747233</v>
+        <v>330.0123534155551</v>
       </c>
       <c r="AB25" t="n">
-        <v>381.3174085753994</v>
+        <v>451.5374610606653</v>
       </c>
       <c r="AC25" t="n">
-        <v>344.9250102833067</v>
+        <v>408.4433595138415</v>
       </c>
       <c r="AD25" t="n">
-        <v>278691.0638747233</v>
+        <v>330012.3534155551</v>
       </c>
       <c r="AE25" t="n">
-        <v>381317.4085753994</v>
+        <v>451537.4610606653</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.080487241284601e-06</v>
+        <v>4.456764247824237e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.944661458333334</v>
       </c>
       <c r="AH25" t="n">
-        <v>344925.0102833066</v>
+        <v>408443.3595138415</v>
       </c>
     </row>
     <row r="26">
@@ -25769,28 +25769,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>277.512219034247</v>
+        <v>328.8335085750788</v>
       </c>
       <c r="AB26" t="n">
-        <v>379.7044610576958</v>
+        <v>449.9245135429618</v>
       </c>
       <c r="AC26" t="n">
-        <v>343.4660002129067</v>
+        <v>406.9843494434415</v>
       </c>
       <c r="AD26" t="n">
-        <v>277512.219034247</v>
+        <v>328833.5085750789</v>
       </c>
       <c r="AE26" t="n">
-        <v>379704.4610576958</v>
+        <v>449924.5135429618</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.088675020521792e-06</v>
+        <v>4.468610101715252e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.918619791666666</v>
       </c>
       <c r="AH26" t="n">
-        <v>343466.0002129067</v>
+        <v>406984.3494434415</v>
       </c>
     </row>
     <row r="27">
@@ -25875,28 +25875,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>278.0268711919687</v>
+        <v>329.3481607328005</v>
       </c>
       <c r="AB27" t="n">
-        <v>380.4086308447414</v>
+        <v>450.6286833300074</v>
       </c>
       <c r="AC27" t="n">
-        <v>344.1029650237851</v>
+        <v>407.62131425432</v>
       </c>
       <c r="AD27" t="n">
-        <v>278026.8711919687</v>
+        <v>329348.1607328005</v>
       </c>
       <c r="AE27" t="n">
-        <v>380408.6308447414</v>
+        <v>450628.6833300074</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.088016233686616e-06</v>
+        <v>4.467656987034365e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH27" t="n">
-        <v>344102.9650237851</v>
+        <v>407621.31425432</v>
       </c>
     </row>
     <row r="28">
@@ -25981,28 +25981,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>278.7086039368857</v>
+        <v>330.0298934777175</v>
       </c>
       <c r="AB28" t="n">
-        <v>381.3414076622628</v>
+        <v>451.5614601475288</v>
       </c>
       <c r="AC28" t="n">
-        <v>344.9467189310028</v>
+        <v>408.4650681615377</v>
       </c>
       <c r="AD28" t="n">
-        <v>278708.6039368857</v>
+        <v>330029.8934777175</v>
       </c>
       <c r="AE28" t="n">
-        <v>381341.4076622628</v>
+        <v>451561.4601475288</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.088298570901691e-06</v>
+        <v>4.468065464754744e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9.918619791666666</v>
       </c>
       <c r="AH28" t="n">
-        <v>344946.7189310028</v>
+        <v>408465.0681615376</v>
       </c>
     </row>
   </sheetData>
@@ -26278,28 +26278,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>474.1395821461043</v>
+        <v>530.8103362870479</v>
       </c>
       <c r="AB2" t="n">
-        <v>648.7386938543776</v>
+        <v>726.2781198072385</v>
       </c>
       <c r="AC2" t="n">
-        <v>586.8239834233905</v>
+        <v>656.9631553905781</v>
       </c>
       <c r="AD2" t="n">
-        <v>474139.5821461043</v>
+        <v>530810.3362870479</v>
       </c>
       <c r="AE2" t="n">
-        <v>648738.6938543776</v>
+        <v>726278.1198072385</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.189129177151339e-06</v>
+        <v>3.287381603462854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.13997395833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>586823.9834233904</v>
+        <v>656963.1553905781</v>
       </c>
     </row>
     <row r="3">
@@ -26384,28 +26384,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>318.111430372999</v>
+        <v>366.6862857721927</v>
       </c>
       <c r="AB3" t="n">
-        <v>435.2540931221703</v>
+        <v>501.7163532507239</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.714053357546</v>
+        <v>453.8332486597984</v>
       </c>
       <c r="AD3" t="n">
-        <v>318111.430372999</v>
+        <v>366686.2857721926</v>
       </c>
       <c r="AE3" t="n">
-        <v>435254.0931221703</v>
+        <v>501716.3532507239</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.810711132711961e-06</v>
+        <v>4.220801662489909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.79036458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>393714.053357546</v>
+        <v>453833.2486597984</v>
       </c>
     </row>
     <row r="4">
@@ -26490,28 +26490,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>282.0589001495163</v>
+        <v>330.5484146941383</v>
       </c>
       <c r="AB4" t="n">
-        <v>385.9254307450215</v>
+        <v>452.2709237513773</v>
       </c>
       <c r="AC4" t="n">
-        <v>349.0932492844597</v>
+        <v>409.1068215547733</v>
       </c>
       <c r="AD4" t="n">
-        <v>282058.9001495163</v>
+        <v>330548.4146941383</v>
       </c>
       <c r="AE4" t="n">
-        <v>385925.4307450214</v>
+        <v>452270.9237513773</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.023912216240862e-06</v>
+        <v>4.540962449320811e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.96028645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>349093.2492844597</v>
+        <v>409106.8215547733</v>
       </c>
     </row>
     <row r="5">
@@ -26596,28 +26596,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>268.1964876791722</v>
+        <v>316.6860022237942</v>
       </c>
       <c r="AB5" t="n">
-        <v>366.9582664366206</v>
+        <v>433.3037594429766</v>
       </c>
       <c r="AC5" t="n">
-        <v>331.9362845170705</v>
+        <v>391.949856787384</v>
       </c>
       <c r="AD5" t="n">
-        <v>268196.4876791722</v>
+        <v>316686.0022237942</v>
       </c>
       <c r="AE5" t="n">
-        <v>366958.2664366207</v>
+        <v>433303.7594429766</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.135196258407571e-06</v>
+        <v>4.708075983230159e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>331936.2845170705</v>
+        <v>391949.856787384</v>
       </c>
     </row>
     <row r="6">
@@ -26702,28 +26702,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>258.8261393884339</v>
+        <v>299.219934208408</v>
       </c>
       <c r="AB6" t="n">
-        <v>354.1373425146417</v>
+        <v>409.4059146357869</v>
       </c>
       <c r="AC6" t="n">
-        <v>320.3389715799254</v>
+        <v>370.3327887477567</v>
       </c>
       <c r="AD6" t="n">
-        <v>258826.1393884339</v>
+        <v>299219.934208408</v>
       </c>
       <c r="AE6" t="n">
-        <v>354137.3425146416</v>
+        <v>409405.9146357869</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.211150417105069e-06</v>
+        <v>4.82213517471815e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.322265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>320338.9715799254</v>
+        <v>370332.7887477567</v>
       </c>
     </row>
     <row r="7">
@@ -26808,28 +26808,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>253.3228692775623</v>
+        <v>293.7166640975396</v>
       </c>
       <c r="AB7" t="n">
-        <v>346.6075255616412</v>
+        <v>401.8760976829545</v>
       </c>
       <c r="AC7" t="n">
-        <v>313.527789788859</v>
+        <v>363.5216069567381</v>
       </c>
       <c r="AD7" t="n">
-        <v>253322.8692775623</v>
+        <v>293716.6640975396</v>
       </c>
       <c r="AE7" t="n">
-        <v>346607.5255616412</v>
+        <v>401876.0976829545</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.251672877107219e-06</v>
+        <v>4.882987129426219e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.19205729166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>313527.789788859</v>
+        <v>363521.6069567382</v>
       </c>
     </row>
     <row r="8">
@@ -26914,28 +26914,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>247.8170770945092</v>
+        <v>288.2108719144864</v>
       </c>
       <c r="AB8" t="n">
-        <v>339.0742577983834</v>
+        <v>394.3428299196929</v>
       </c>
       <c r="AC8" t="n">
-        <v>306.7134865279165</v>
+        <v>356.7073036957945</v>
       </c>
       <c r="AD8" t="n">
-        <v>247817.0770945092</v>
+        <v>288210.8719144864</v>
       </c>
       <c r="AE8" t="n">
-        <v>339074.2577983834</v>
+        <v>394342.8299196929</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.285882793088934e-06</v>
+        <v>4.934359633903384e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.087890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>306713.4865279165</v>
+        <v>356707.3036957944</v>
       </c>
     </row>
     <row r="9">
@@ -27020,28 +27020,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>243.2860190937658</v>
+        <v>283.6798139137429</v>
       </c>
       <c r="AB9" t="n">
-        <v>332.8746643455984</v>
+        <v>388.1432364669047</v>
       </c>
       <c r="AC9" t="n">
-        <v>301.1055735730792</v>
+        <v>351.0993907409563</v>
       </c>
       <c r="AD9" t="n">
-        <v>243286.0190937658</v>
+        <v>283679.8139137429</v>
       </c>
       <c r="AE9" t="n">
-        <v>332874.6643455984</v>
+        <v>388143.2364669047</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.311438414849084e-06</v>
+        <v>4.972736117902695e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.009765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>301105.5735730792</v>
+        <v>351099.3907409563</v>
       </c>
     </row>
     <row r="10">
@@ -27126,28 +27126,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>231.0769822596011</v>
+        <v>279.4811559496543</v>
       </c>
       <c r="AB10" t="n">
-        <v>316.1697215244117</v>
+        <v>382.3984474087222</v>
       </c>
       <c r="AC10" t="n">
-        <v>285.9949270492067</v>
+        <v>345.9028762876247</v>
       </c>
       <c r="AD10" t="n">
-        <v>231076.9822596011</v>
+        <v>279481.1559496543</v>
       </c>
       <c r="AE10" t="n">
-        <v>316169.7215244117</v>
+        <v>382398.4474087222</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.329256079422893e-06</v>
+        <v>4.999492630651218e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.954427083333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>285994.9270492067</v>
+        <v>345902.8762876248</v>
       </c>
     </row>
     <row r="11">
@@ -27232,28 +27232,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>227.275564929066</v>
+        <v>275.6797386191192</v>
       </c>
       <c r="AB11" t="n">
-        <v>310.9684546260797</v>
+        <v>377.1971805103876</v>
       </c>
       <c r="AC11" t="n">
-        <v>281.2900617636259</v>
+        <v>341.1980110020432</v>
       </c>
       <c r="AD11" t="n">
-        <v>227275.564929066</v>
+        <v>275679.7386191192</v>
       </c>
       <c r="AE11" t="n">
-        <v>310968.4546260797</v>
+        <v>377197.1805103876</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.344630178569438e-06</v>
+        <v>5.02257967879423e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>281290.0617636259</v>
+        <v>341198.0110020432</v>
       </c>
     </row>
     <row r="12">
@@ -27338,28 +27338,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>225.8544454634971</v>
+        <v>266.3334916294945</v>
       </c>
       <c r="AB12" t="n">
-        <v>309.0240162779232</v>
+        <v>364.4092330518665</v>
       </c>
       <c r="AC12" t="n">
-        <v>279.5311978823806</v>
+        <v>329.6305273009664</v>
       </c>
       <c r="AD12" t="n">
-        <v>225854.445463497</v>
+        <v>266333.4916294945</v>
       </c>
       <c r="AE12" t="n">
-        <v>309024.0162779232</v>
+        <v>364409.2330518665</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.348499157162608e-06</v>
+        <v>5.028389664419623e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.899088541666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>279531.1978823806</v>
+        <v>329630.5273009664</v>
       </c>
     </row>
     <row r="13">
@@ -27444,28 +27444,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>225.9718959394344</v>
+        <v>266.4509421054319</v>
       </c>
       <c r="AB13" t="n">
-        <v>309.18471720065</v>
+        <v>364.5699339745933</v>
       </c>
       <c r="AC13" t="n">
-        <v>279.6765617345874</v>
+        <v>329.7758911531734</v>
       </c>
       <c r="AD13" t="n">
-        <v>225971.8959394344</v>
+        <v>266450.9421054319</v>
       </c>
       <c r="AE13" t="n">
-        <v>309184.71720065</v>
+        <v>364569.9339745933</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.349110048519424e-06</v>
+        <v>5.029307030571001e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>279676.5617345874</v>
+        <v>329775.8911531734</v>
       </c>
     </row>
   </sheetData>
@@ -27741,28 +27741,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.0903211088473</v>
+        <v>411.0976650534105</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.2184869373655</v>
+        <v>562.48196167506</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.7190383595038</v>
+        <v>508.7994727011829</v>
       </c>
       <c r="AD2" t="n">
-        <v>356090.3211088473</v>
+        <v>411097.6650534105</v>
       </c>
       <c r="AE2" t="n">
-        <v>487218.4869373655</v>
+        <v>562481.96167506</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.552809204359373e-06</v>
+        <v>3.915362817701536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.525390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>440719.0383595038</v>
+        <v>508799.4727011829</v>
       </c>
     </row>
     <row r="3">
@@ -27847,28 +27847,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>267.3845777777942</v>
+        <v>306.6756272467474</v>
       </c>
       <c r="AB3" t="n">
-        <v>365.8473754906184</v>
+        <v>419.6071227728056</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.9314154438094</v>
+        <v>379.5604078976639</v>
       </c>
       <c r="AD3" t="n">
-        <v>267384.5777777942</v>
+        <v>306675.6272467474</v>
       </c>
       <c r="AE3" t="n">
-        <v>365847.3754906184</v>
+        <v>419607.1227728056</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.085537107703666e-06</v>
+        <v>4.732432507494424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.18815104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>330931.4154438094</v>
+        <v>379560.4078976639</v>
       </c>
     </row>
     <row r="4">
@@ -27953,28 +27953,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>239.9491389270177</v>
+        <v>279.3254397419945</v>
       </c>
       <c r="AB4" t="n">
-        <v>328.3089976886928</v>
+        <v>382.1853896236879</v>
       </c>
       <c r="AC4" t="n">
-        <v>296.9756477339538</v>
+        <v>345.7101524385656</v>
       </c>
       <c r="AD4" t="n">
-        <v>239949.1389270177</v>
+        <v>279325.4397419945</v>
       </c>
       <c r="AE4" t="n">
-        <v>328308.9976886928</v>
+        <v>382185.3896236878</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.269229070393754e-06</v>
+        <v>5.014169458066051e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>296975.6477339538</v>
+        <v>345710.1524385656</v>
       </c>
     </row>
     <row r="5">
@@ -28059,28 +28059,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>228.4264872053989</v>
+        <v>267.6321958197833</v>
       </c>
       <c r="AB5" t="n">
-        <v>312.5431972596649</v>
+        <v>366.1861774198049</v>
       </c>
       <c r="AC5" t="n">
-        <v>282.7145131704274</v>
+        <v>331.2378825923859</v>
       </c>
       <c r="AD5" t="n">
-        <v>228426.4872053989</v>
+        <v>267632.1958197833</v>
       </c>
       <c r="AE5" t="n">
-        <v>312543.1972596649</v>
+        <v>366186.1774198049</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.373165631269209e-06</v>
+        <v>5.173581820398727e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>282714.5131704274</v>
+        <v>331237.8825923859</v>
       </c>
     </row>
     <row r="6">
@@ -28165,28 +28165,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>221.203926912973</v>
+        <v>260.4096355273573</v>
       </c>
       <c r="AB6" t="n">
-        <v>302.6609716307009</v>
+        <v>356.3039517908358</v>
       </c>
       <c r="AC6" t="n">
-        <v>273.7754332856978</v>
+        <v>322.2988027076548</v>
       </c>
       <c r="AD6" t="n">
-        <v>221203.926912973</v>
+        <v>260409.6355273573</v>
       </c>
       <c r="AE6" t="n">
-        <v>302660.9716307009</v>
+        <v>356303.9517908358</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.427042950580159e-06</v>
+        <v>5.256215983730359e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.07486979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>273775.4332856978</v>
+        <v>322298.8027076548</v>
       </c>
     </row>
     <row r="7">
@@ -28271,28 +28271,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>207.3981656595545</v>
+        <v>254.3766359028933</v>
       </c>
       <c r="AB7" t="n">
-        <v>283.7713200165826</v>
+        <v>348.0493355473207</v>
       </c>
       <c r="AC7" t="n">
-        <v>256.6885835098324</v>
+        <v>314.8319954530988</v>
       </c>
       <c r="AD7" t="n">
-        <v>207398.1656595545</v>
+        <v>254376.6359028933</v>
       </c>
       <c r="AE7" t="n">
-        <v>283771.3200165826</v>
+        <v>348049.3355473207</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.466178247481223e-06</v>
+        <v>5.316239618118887e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.9609375</v>
       </c>
       <c r="AH7" t="n">
-        <v>256688.5835098324</v>
+        <v>314831.9954530988</v>
       </c>
     </row>
     <row r="8">
@@ -28377,28 +28377,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>204.5119912736322</v>
+        <v>251.4904615169709</v>
       </c>
       <c r="AB8" t="n">
-        <v>279.8223288927381</v>
+        <v>344.1003444234762</v>
       </c>
       <c r="AC8" t="n">
-        <v>253.1164785564025</v>
+        <v>311.2598904996689</v>
       </c>
       <c r="AD8" t="n">
-        <v>204511.9912736322</v>
+        <v>251490.4615169709</v>
       </c>
       <c r="AE8" t="n">
-        <v>279822.3288927381</v>
+        <v>344100.3444234762</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.483147481909867e-06</v>
+        <v>5.342266126254833e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.912109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>253116.4785564025</v>
+        <v>311259.8904996689</v>
       </c>
     </row>
     <row r="9">
@@ -28483,28 +28483,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>205.3710241709902</v>
+        <v>252.3494944143289</v>
       </c>
       <c r="AB9" t="n">
-        <v>280.9976956007594</v>
+        <v>345.2757111314975</v>
       </c>
       <c r="AC9" t="n">
-        <v>254.1796699154482</v>
+        <v>312.3230818587146</v>
       </c>
       <c r="AD9" t="n">
-        <v>205371.0241709902</v>
+        <v>252349.4944143289</v>
       </c>
       <c r="AE9" t="n">
-        <v>280997.6956007594</v>
+        <v>345275.7111314975</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.482617193333973e-06</v>
+        <v>5.341452797875585e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.912109375</v>
       </c>
       <c r="AH9" t="n">
-        <v>254179.6699154482</v>
+        <v>312323.0818587146</v>
       </c>
     </row>
   </sheetData>
@@ -53681,28 +53681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.4089030087481</v>
+        <v>332.333212203276</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.8772965656042</v>
+        <v>454.7129624430884</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.4770773846223</v>
+        <v>411.3157955011703</v>
       </c>
       <c r="AD2" t="n">
-        <v>286408.9030087481</v>
+        <v>332333.212203276</v>
       </c>
       <c r="AE2" t="n">
-        <v>391877.2965656042</v>
+        <v>454712.9624430884</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.857663862964818e-06</v>
+        <v>4.46504341741821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.49674479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>354477.0773846223</v>
+        <v>411315.7955011703</v>
       </c>
     </row>
     <row r="3">
@@ -53787,28 +53787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>223.0524630028869</v>
+        <v>268.9766826888665</v>
       </c>
       <c r="AB3" t="n">
-        <v>305.1902202605765</v>
+        <v>368.025763668659</v>
       </c>
       <c r="AC3" t="n">
-        <v>276.0632939761617</v>
+        <v>332.9019013115248</v>
       </c>
       <c r="AD3" t="n">
-        <v>223052.4630028869</v>
+        <v>268976.6826888665</v>
       </c>
       <c r="AE3" t="n">
-        <v>305190.2202605765</v>
+        <v>368025.763668659</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.321744875762498e-06</v>
+        <v>5.190160845746963e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.751953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>276063.2939761617</v>
+        <v>332901.9013115248</v>
       </c>
     </row>
     <row r="4">
@@ -53893,28 +53893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.4544823473075</v>
+        <v>245.7105314517434</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.848374993283</v>
+        <v>336.1919891157179</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.758284467704</v>
+        <v>304.1062975230341</v>
       </c>
       <c r="AD4" t="n">
-        <v>207454.4823473075</v>
+        <v>245710.5314517434</v>
       </c>
       <c r="AE4" t="n">
-        <v>283848.374993283</v>
+        <v>336191.9891157179</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.484228086153365e-06</v>
+        <v>5.444037656941971e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.25065104166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>256758.284467704</v>
+        <v>304106.2975230342</v>
       </c>
     </row>
     <row r="5">
@@ -53999,28 +53999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>198.8517271346648</v>
+        <v>237.1077762391008</v>
       </c>
       <c r="AB5" t="n">
-        <v>272.0777057845769</v>
+        <v>324.4213199070118</v>
       </c>
       <c r="AC5" t="n">
-        <v>246.1109914080349</v>
+        <v>293.4590044633652</v>
       </c>
       <c r="AD5" t="n">
-        <v>198851.7271346648</v>
+        <v>237107.7762391008</v>
       </c>
       <c r="AE5" t="n">
-        <v>272077.7057845769</v>
+        <v>324421.3199070118</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.559819532445942e-06</v>
+        <v>5.562147800705212e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.03255208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>246110.9914080349</v>
+        <v>293459.0044633652</v>
       </c>
     </row>
     <row r="6">
@@ -54105,28 +54105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>189.2392021867098</v>
+        <v>235.0780810181143</v>
       </c>
       <c r="AB6" t="n">
-        <v>258.9254250761204</v>
+        <v>321.6442013618262</v>
       </c>
       <c r="AC6" t="n">
-        <v>234.2139459110475</v>
+        <v>290.9469302144209</v>
       </c>
       <c r="AD6" t="n">
-        <v>189239.2021867098</v>
+        <v>235078.0810181143</v>
       </c>
       <c r="AE6" t="n">
-        <v>258925.4250761204</v>
+        <v>321644.2013618262</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.576824865066189e-06</v>
+        <v>5.588718297487945e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.983723958333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>234213.9459110475</v>
+        <v>290946.9302144209</v>
       </c>
     </row>
     <row r="7">
@@ -54211,28 +54211,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>190.121601709135</v>
+        <v>235.9604805405396</v>
       </c>
       <c r="AB7" t="n">
-        <v>260.1327630314215</v>
+        <v>322.8515393171272</v>
       </c>
       <c r="AC7" t="n">
-        <v>235.3060572264044</v>
+        <v>292.0390415297778</v>
       </c>
       <c r="AD7" t="n">
-        <v>190121.601709135</v>
+        <v>235960.4805405396</v>
       </c>
       <c r="AE7" t="n">
-        <v>260132.7630314215</v>
+        <v>322851.5393171272</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.577921983299753e-06</v>
+        <v>5.59043252308683e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.98046875</v>
       </c>
       <c r="AH7" t="n">
-        <v>235306.0572264044</v>
+        <v>292039.0415297778</v>
       </c>
     </row>
   </sheetData>
@@ -54508,28 +54508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.1984031042016</v>
+        <v>222.8635992046175</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.1871608026472</v>
+        <v>304.9318084797018</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.7868422980551</v>
+        <v>275.8295446529704</v>
       </c>
       <c r="AD2" t="n">
-        <v>179198.4031042016</v>
+        <v>222863.5992046176</v>
       </c>
       <c r="AE2" t="n">
-        <v>245187.1608026472</v>
+        <v>304931.8084797018</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.499185418994583e-06</v>
+        <v>5.702538962611685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.95377604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>221786.8422980551</v>
+        <v>275829.5446529703</v>
       </c>
     </row>
     <row r="3">
@@ -54614,28 +54614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.6836544088594</v>
+        <v>202.0571838586618</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.6956854090566</v>
+        <v>276.4635530891175</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.0601673630743</v>
+        <v>250.078259601407</v>
       </c>
       <c r="AD3" t="n">
-        <v>165683.6544088594</v>
+        <v>202057.1838586618</v>
       </c>
       <c r="AE3" t="n">
-        <v>226695.6854090566</v>
+        <v>276463.5530891175</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.706197397948429e-06</v>
+        <v>6.039901443977662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.341796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>205060.1673630743</v>
+        <v>250078.259601407</v>
       </c>
     </row>
   </sheetData>
@@ -54911,28 +54911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>605.5116994481334</v>
+        <v>680.1011193465527</v>
       </c>
       <c r="AB2" t="n">
-        <v>828.4878204757872</v>
+        <v>930.5443554337675</v>
       </c>
       <c r="AC2" t="n">
-        <v>749.4181056795364</v>
+        <v>841.7345081783735</v>
       </c>
       <c r="AD2" t="n">
-        <v>605511.6994481335</v>
+        <v>680101.1193465526</v>
       </c>
       <c r="AE2" t="n">
-        <v>828487.8204757872</v>
+        <v>930544.3554337674</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.887206143516907e-06</v>
+        <v>2.78812213107306e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.98567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>749418.1056795365</v>
+        <v>841734.5081783736</v>
       </c>
     </row>
     <row r="3">
@@ -55017,28 +55017,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>379.2862420283379</v>
+        <v>428.9841645176444</v>
       </c>
       <c r="AB3" t="n">
-        <v>518.9561692712203</v>
+        <v>586.9550593386897</v>
       </c>
       <c r="AC3" t="n">
-        <v>469.4277208355325</v>
+        <v>530.9368922720041</v>
       </c>
       <c r="AD3" t="n">
-        <v>379286.2420283379</v>
+        <v>428984.1645176444</v>
       </c>
       <c r="AE3" t="n">
-        <v>518956.1692712203</v>
+        <v>586955.0593386897</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.571618724264272e-06</v>
+        <v>3.799260140411286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.46419270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>469427.7208355325</v>
+        <v>530936.8922720042</v>
       </c>
     </row>
     <row r="4">
@@ -55123,28 +55123,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>330.4983142063792</v>
+        <v>380.1108958411142</v>
       </c>
       <c r="AB4" t="n">
-        <v>452.2023740537479</v>
+        <v>520.0844969990195</v>
       </c>
       <c r="AC4" t="n">
-        <v>409.0448141440755</v>
+        <v>470.4483625486083</v>
       </c>
       <c r="AD4" t="n">
-        <v>330498.3142063792</v>
+        <v>380110.8958411142</v>
       </c>
       <c r="AE4" t="n">
-        <v>452202.3740537479</v>
+        <v>520084.4969990195</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.82027221583076e-06</v>
+        <v>4.166616035890281e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.3671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>409044.8141440755</v>
+        <v>470448.3625486083</v>
       </c>
     </row>
     <row r="5">
@@ -55229,28 +55229,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>303.9880328454319</v>
+        <v>353.6858658261875</v>
       </c>
       <c r="AB5" t="n">
-        <v>415.9298375446288</v>
+        <v>483.9286051425498</v>
       </c>
       <c r="AC5" t="n">
-        <v>376.2340776105621</v>
+        <v>437.7431382658072</v>
       </c>
       <c r="AD5" t="n">
-        <v>303988.0328454319</v>
+        <v>353685.8658261875</v>
       </c>
       <c r="AE5" t="n">
-        <v>415929.8375446288</v>
+        <v>483928.6051425498</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.949079648293718e-06</v>
+        <v>4.356913664122569e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.869140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>376234.0776105621</v>
+        <v>437743.1382658072</v>
       </c>
     </row>
     <row r="6">
@@ -55335,28 +55335,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>293.5062824579944</v>
+        <v>343.20411543875</v>
       </c>
       <c r="AB6" t="n">
-        <v>401.5882442423458</v>
+        <v>469.5870118402668</v>
       </c>
       <c r="AC6" t="n">
-        <v>363.2612258444963</v>
+        <v>424.7702864997415</v>
       </c>
       <c r="AD6" t="n">
-        <v>293506.2824579944</v>
+        <v>343204.11543875</v>
       </c>
       <c r="AE6" t="n">
-        <v>401588.2442423458</v>
+        <v>469587.0118402668</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.027467046031114e-06</v>
+        <v>4.472721700875552e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.58919270833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>363261.2258444963</v>
+        <v>424770.2864997415</v>
       </c>
     </row>
     <row r="7">
@@ -55441,28 +55441,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>286.3256158357963</v>
+        <v>327.7263426858817</v>
       </c>
       <c r="AB7" t="n">
-        <v>391.7633393812009</v>
+        <v>448.4096403286505</v>
       </c>
       <c r="AC7" t="n">
-        <v>354.3739961139585</v>
+        <v>405.6140536025661</v>
       </c>
       <c r="AD7" t="n">
-        <v>286325.6158357963</v>
+        <v>327726.3426858817</v>
       </c>
       <c r="AE7" t="n">
-        <v>391763.3393812009</v>
+        <v>448409.6403286505</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.077099267714088e-06</v>
+        <v>4.546047392487993e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>354373.9961139585</v>
+        <v>405614.0536025661</v>
       </c>
     </row>
     <row r="8">
@@ -55547,28 +55547,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>281.1223147978308</v>
+        <v>322.5230416479162</v>
       </c>
       <c r="AB8" t="n">
-        <v>384.6439533476158</v>
+        <v>441.2902542950654</v>
       </c>
       <c r="AC8" t="n">
-        <v>347.9340742912977</v>
+        <v>399.1741317799054</v>
       </c>
       <c r="AD8" t="n">
-        <v>281122.3147978308</v>
+        <v>322523.0416479162</v>
       </c>
       <c r="AE8" t="n">
-        <v>384643.9533476158</v>
+        <v>441290.2542950654</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.114421910606642e-06</v>
+        <v>4.601187148680681e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.29296875</v>
       </c>
       <c r="AH8" t="n">
-        <v>347934.0742912978</v>
+        <v>399174.1317799054</v>
       </c>
     </row>
     <row r="9">
@@ -55653,28 +55653,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>276.1914841226147</v>
+        <v>317.5922109727001</v>
       </c>
       <c r="AB9" t="n">
-        <v>377.8973732848883</v>
+        <v>434.5436742323379</v>
       </c>
       <c r="AC9" t="n">
-        <v>341.8313783608724</v>
+        <v>393.07143584948</v>
       </c>
       <c r="AD9" t="n">
-        <v>276191.4841226147</v>
+        <v>317592.2109727</v>
       </c>
       <c r="AE9" t="n">
-        <v>377897.3732848883</v>
+        <v>434543.6742323379</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.14278318013977e-06</v>
+        <v>4.64308754388779e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.19856770833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>341831.3783608724</v>
+        <v>393071.43584948</v>
       </c>
     </row>
     <row r="10">
@@ -55759,28 +55759,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>272.0731029841324</v>
+        <v>313.4738298342178</v>
       </c>
       <c r="AB10" t="n">
-        <v>372.2624225210643</v>
+        <v>428.9087234685138</v>
       </c>
       <c r="AC10" t="n">
-        <v>336.7342193892445</v>
+        <v>387.9742768778522</v>
       </c>
       <c r="AD10" t="n">
-        <v>272073.1029841324</v>
+        <v>313473.8298342178</v>
       </c>
       <c r="AE10" t="n">
-        <v>372262.4225210642</v>
+        <v>428908.7234685138</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.169273393696755e-06</v>
+        <v>4.682223676911098e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.11393229166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>336734.2193892445</v>
+        <v>387974.2768778522</v>
       </c>
     </row>
     <row r="11">
@@ -55865,28 +55865,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>268.7292682401729</v>
+        <v>310.1299950902583</v>
       </c>
       <c r="AB11" t="n">
-        <v>367.6872403048013</v>
+        <v>424.3335412522509</v>
       </c>
       <c r="AC11" t="n">
-        <v>332.5956861423932</v>
+        <v>383.8357436310009</v>
       </c>
       <c r="AD11" t="n">
-        <v>268729.2682401729</v>
+        <v>310129.9950902583</v>
       </c>
       <c r="AE11" t="n">
-        <v>367687.2403048013</v>
+        <v>424333.5412522509</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.182567738790408e-06</v>
+        <v>4.70186448716443e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.07161458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>332595.6861423932</v>
+        <v>383835.7436310009</v>
       </c>
     </row>
     <row r="12">
@@ -55971,28 +55971,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>265.7156262609818</v>
+        <v>307.1163531110672</v>
       </c>
       <c r="AB12" t="n">
-        <v>363.5638423963712</v>
+        <v>420.2101433438208</v>
       </c>
       <c r="AC12" t="n">
-        <v>328.8658195431184</v>
+        <v>380.105877031726</v>
       </c>
       <c r="AD12" t="n">
-        <v>265715.6262609818</v>
+        <v>307116.3531110672</v>
       </c>
       <c r="AE12" t="n">
-        <v>363563.8423963712</v>
+        <v>420210.1433438208</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.19664989692665e-06</v>
+        <v>4.722669197284627e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.029296875</v>
       </c>
       <c r="AH12" t="n">
-        <v>328865.8195431184</v>
+        <v>380105.8770317261</v>
       </c>
     </row>
     <row r="13">
@@ -56077,28 +56077,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>254.146305351905</v>
+        <v>303.7587974780921</v>
       </c>
       <c r="AB13" t="n">
-        <v>347.7341871259919</v>
+        <v>415.6161876018838</v>
       </c>
       <c r="AC13" t="n">
-        <v>314.5469243547878</v>
+        <v>375.9503619781422</v>
       </c>
       <c r="AD13" t="n">
-        <v>254146.305351905</v>
+        <v>303758.7974780921</v>
       </c>
       <c r="AE13" t="n">
-        <v>347734.1871259919</v>
+        <v>415616.1876018838</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.20925490560804e-06</v>
+        <v>4.741291595154453e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>314546.9243547879</v>
+        <v>375950.3619781422</v>
       </c>
     </row>
     <row r="14">
@@ -56183,28 +56183,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>249.9936041538156</v>
+        <v>299.6060962800026</v>
       </c>
       <c r="AB14" t="n">
-        <v>342.0522781425219</v>
+        <v>409.9342786184109</v>
       </c>
       <c r="AC14" t="n">
-        <v>309.4072887900891</v>
+        <v>370.8107264134425</v>
       </c>
       <c r="AD14" t="n">
-        <v>249993.6041538156</v>
+        <v>299606.0962800026</v>
       </c>
       <c r="AE14" t="n">
-        <v>342052.2781425219</v>
+        <v>409934.2786184109</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.225700502872041e-06</v>
+        <v>4.765588004875242e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.938151041666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>309407.2887900891</v>
+        <v>370810.7264134425</v>
       </c>
     </row>
     <row r="15">
@@ -56289,28 +56289,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>248.2054624497459</v>
+        <v>297.8179545759329</v>
       </c>
       <c r="AB15" t="n">
-        <v>339.6056637757705</v>
+        <v>407.4876642516583</v>
       </c>
       <c r="AC15" t="n">
-        <v>307.1941758646549</v>
+        <v>368.597613488008</v>
       </c>
       <c r="AD15" t="n">
-        <v>248205.4624497459</v>
+        <v>297817.9545759329</v>
       </c>
       <c r="AE15" t="n">
-        <v>339605.6637757705</v>
+        <v>407487.6642516583</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.231313670800473e-06</v>
+        <v>4.773880791426649e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH15" t="n">
-        <v>307194.1758646549</v>
+        <v>368597.613488008</v>
       </c>
     </row>
     <row r="16">
@@ -56395,28 +56395,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>245.495849540381</v>
+        <v>286.9818277364901</v>
       </c>
       <c r="AB16" t="n">
-        <v>335.8982518534946</v>
+        <v>392.6611974537559</v>
       </c>
       <c r="AC16" t="n">
-        <v>303.8405941328544</v>
+        <v>355.1861638722206</v>
       </c>
       <c r="AD16" t="n">
-        <v>245495.849540381</v>
+        <v>286981.8277364901</v>
       </c>
       <c r="AE16" t="n">
-        <v>335898.2518534946</v>
+        <v>392661.1974537559</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.238797894705048e-06</v>
+        <v>4.784937840161858e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>303840.5941328544</v>
+        <v>355186.1638722206</v>
       </c>
     </row>
     <row r="17">
@@ -56501,28 +56501,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>244.5333936937239</v>
+        <v>286.0193718898329</v>
       </c>
       <c r="AB17" t="n">
-        <v>334.5813773035436</v>
+        <v>391.3443229038044</v>
       </c>
       <c r="AC17" t="n">
-        <v>302.6494002417053</v>
+        <v>353.9949699810714</v>
       </c>
       <c r="AD17" t="n">
-        <v>244533.3936937239</v>
+        <v>286019.3718898329</v>
       </c>
       <c r="AE17" t="n">
-        <v>334581.3773035436</v>
+        <v>391344.3229038044</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.244804969154773e-06</v>
+        <v>4.793812576646697e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.879557291666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>302649.4002417054</v>
+        <v>353994.9699810714</v>
       </c>
     </row>
     <row r="18">
@@ -56607,28 +56607,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>245.166359219585</v>
+        <v>286.652337415694</v>
       </c>
       <c r="AB18" t="n">
-        <v>335.4474286604946</v>
+        <v>392.2103742607558</v>
       </c>
       <c r="AC18" t="n">
-        <v>303.4327968726599</v>
+        <v>354.778366612026</v>
       </c>
       <c r="AD18" t="n">
-        <v>245166.359219585</v>
+        <v>286652.337415694</v>
       </c>
       <c r="AE18" t="n">
-        <v>335447.4286604946</v>
+        <v>392210.3742607558</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.245198875676066e-06</v>
+        <v>4.794394526580129e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.879557291666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>303432.7968726599</v>
+        <v>354778.366612026</v>
       </c>
     </row>
   </sheetData>
@@ -56904,28 +56904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>861.2647688616221</v>
+        <v>946.469345922668</v>
       </c>
       <c r="AB2" t="n">
-        <v>1178.420453076428</v>
+        <v>1295.001114371997</v>
       </c>
       <c r="AC2" t="n">
-        <v>1065.953658958307</v>
+        <v>1171.408025561812</v>
       </c>
       <c r="AD2" t="n">
-        <v>861264.7688616221</v>
+        <v>946469.345922668</v>
       </c>
       <c r="AE2" t="n">
-        <v>1178420.453076429</v>
+        <v>1295001.114371997</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.542237028840723e-06</v>
+        <v>2.239588828037941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.029296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1065953.658958307</v>
+        <v>1171408.025561812</v>
       </c>
     </row>
     <row r="3">
@@ -57010,28 +57010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>463.9951651905916</v>
+        <v>523.527452874946</v>
       </c>
       <c r="AB3" t="n">
-        <v>634.8586550357549</v>
+        <v>716.3133574246606</v>
       </c>
       <c r="AC3" t="n">
-        <v>574.2686360288603</v>
+        <v>647.9494159441616</v>
       </c>
       <c r="AD3" t="n">
-        <v>463995.1651905917</v>
+        <v>523527.4528749459</v>
       </c>
       <c r="AE3" t="n">
-        <v>634858.6550357549</v>
+        <v>716313.3574246606</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.298551889772336e-06</v>
+        <v>3.337885835142445e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>574268.6360288603</v>
+        <v>647949.4159441616</v>
       </c>
     </row>
     <row r="4">
@@ -57116,28 +57116,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>385.9792344539617</v>
+        <v>445.5114326297649</v>
       </c>
       <c r="AB4" t="n">
-        <v>528.1138167819453</v>
+        <v>609.5683967013025</v>
       </c>
       <c r="AC4" t="n">
-        <v>477.7113753206728</v>
+        <v>551.3920444547476</v>
       </c>
       <c r="AD4" t="n">
-        <v>385979.2344539617</v>
+        <v>445511.4326297649</v>
       </c>
       <c r="AE4" t="n">
-        <v>528113.8167819453</v>
+        <v>609568.3967013025</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.581814105566672e-06</v>
+        <v>3.749230448217344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>477711.3753206728</v>
+        <v>551392.0444547476</v>
       </c>
     </row>
     <row r="5">
@@ -57222,28 +57222,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.4841640557736</v>
+        <v>412.4874688994213</v>
       </c>
       <c r="AB5" t="n">
-        <v>494.5985808169066</v>
+        <v>564.3835526109904</v>
       </c>
       <c r="AC5" t="n">
-        <v>447.3947864372083</v>
+        <v>510.5195784670878</v>
       </c>
       <c r="AD5" t="n">
-        <v>361484.1640557736</v>
+        <v>412487.4688994213</v>
       </c>
       <c r="AE5" t="n">
-        <v>494598.5808169066</v>
+        <v>564383.5526109904</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.724726298861906e-06</v>
+        <v>3.956763107276238e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.337890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>447394.7864372083</v>
+        <v>510519.5784670878</v>
       </c>
     </row>
     <row r="6">
@@ -57328,28 +57328,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>338.0879864141106</v>
+        <v>389.176542603779</v>
       </c>
       <c r="AB6" t="n">
-        <v>462.5868984010725</v>
+        <v>532.4885148478056</v>
       </c>
       <c r="AC6" t="n">
-        <v>418.4382540624629</v>
+        <v>481.6685583430547</v>
       </c>
       <c r="AD6" t="n">
-        <v>338087.9864141106</v>
+        <v>389176.5426037789</v>
       </c>
       <c r="AE6" t="n">
-        <v>462586.8984010725</v>
+        <v>532488.5148478056</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.81667976187856e-06</v>
+        <v>4.090295077148793e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.966796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>418438.2540624629</v>
+        <v>481668.5583430547</v>
       </c>
     </row>
     <row r="7">
@@ -57434,28 +57434,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>328.2769844965488</v>
+        <v>379.365540686217</v>
       </c>
       <c r="AB7" t="n">
-        <v>449.1630527466073</v>
+        <v>519.0646691933405</v>
       </c>
       <c r="AC7" t="n">
-        <v>406.2955613967742</v>
+        <v>469.525865677366</v>
       </c>
       <c r="AD7" t="n">
-        <v>328276.9844965488</v>
+        <v>379365.540686217</v>
       </c>
       <c r="AE7" t="n">
-        <v>449163.0527466073</v>
+        <v>519064.6691933405</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.880449346137788e-06</v>
+        <v>4.182899291549574e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.72265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>406295.5613967742</v>
+        <v>469525.865677366</v>
       </c>
     </row>
     <row r="8">
@@ -57540,28 +57540,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>321.5560290936826</v>
+        <v>372.6445852833509</v>
       </c>
       <c r="AB8" t="n">
-        <v>439.9671450567799</v>
+        <v>509.8687615035132</v>
       </c>
       <c r="AC8" t="n">
-        <v>397.9772982303264</v>
+        <v>461.2076025109183</v>
       </c>
       <c r="AD8" t="n">
-        <v>321556.0290936826</v>
+        <v>372644.5852833508</v>
       </c>
       <c r="AE8" t="n">
-        <v>439967.14505678</v>
+        <v>509868.7615035132</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.924290935316006e-06</v>
+        <v>4.246564688950111e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.56315104166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>397977.2982303264</v>
+        <v>461207.6025109183</v>
       </c>
     </row>
     <row r="9">
@@ -57646,28 +57646,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>316.6788527115957</v>
+        <v>359.2385155691083</v>
       </c>
       <c r="AB9" t="n">
-        <v>433.2939771649723</v>
+        <v>491.525985486432</v>
       </c>
       <c r="AC9" t="n">
-        <v>391.9410081162629</v>
+        <v>444.6154352926595</v>
       </c>
       <c r="AD9" t="n">
-        <v>316678.8527115957</v>
+        <v>359238.5155691083</v>
       </c>
       <c r="AE9" t="n">
-        <v>433293.9771649723</v>
+        <v>491525.985486432</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.955416565728248e-06</v>
+        <v>4.291764365026682e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.45247395833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>391941.0081162629</v>
+        <v>444615.4352926595</v>
       </c>
     </row>
     <row r="10">
@@ -57752,28 +57752,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>311.6600856955816</v>
+        <v>354.2197485530942</v>
       </c>
       <c r="AB10" t="n">
-        <v>426.4270787212876</v>
+        <v>484.6590870427473</v>
       </c>
       <c r="AC10" t="n">
-        <v>385.729476822291</v>
+        <v>438.4039039986877</v>
       </c>
       <c r="AD10" t="n">
-        <v>311660.0856955816</v>
+        <v>354219.7485530942</v>
       </c>
       <c r="AE10" t="n">
-        <v>426427.0787212876</v>
+        <v>484659.0870427473</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.98454939663239e-06</v>
+        <v>4.33407015940323e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH10" t="n">
-        <v>385729.476822291</v>
+        <v>438403.9039986877</v>
       </c>
     </row>
     <row r="11">
@@ -57858,28 +57858,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>307.7147217885349</v>
+        <v>350.2743846460475</v>
       </c>
       <c r="AB11" t="n">
-        <v>421.028857766495</v>
+        <v>479.2608660879546</v>
       </c>
       <c r="AC11" t="n">
-        <v>380.8464544989731</v>
+        <v>433.5208816753697</v>
       </c>
       <c r="AD11" t="n">
-        <v>307714.7217885348</v>
+        <v>350274.3846460474</v>
       </c>
       <c r="AE11" t="n">
-        <v>421028.857766495</v>
+        <v>479260.8660879547</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.007419143368214e-06</v>
+        <v>4.367280897008271e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.27018229166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>380846.4544989731</v>
+        <v>433520.8816753697</v>
       </c>
     </row>
     <row r="12">
@@ -57964,28 +57964,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>305.1062511636468</v>
+        <v>347.6659140211595</v>
       </c>
       <c r="AB12" t="n">
-        <v>417.459833179921</v>
+        <v>475.6918415013807</v>
       </c>
       <c r="AC12" t="n">
-        <v>377.6180526097842</v>
+        <v>430.2924797861809</v>
       </c>
       <c r="AD12" t="n">
-        <v>305106.2511636469</v>
+        <v>347665.9140211595</v>
       </c>
       <c r="AE12" t="n">
-        <v>417459.833179921</v>
+        <v>475691.8415013807</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.018996359558133e-06</v>
+        <v>4.384092971646509e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.23111979166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>377618.0526097842</v>
+        <v>430292.4797861809</v>
       </c>
     </row>
     <row r="13">
@@ -58070,28 +58070,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>300.9535401759977</v>
+        <v>343.5132030335103</v>
       </c>
       <c r="AB13" t="n">
-        <v>411.7779108019406</v>
+        <v>470.0099191234002</v>
       </c>
       <c r="AC13" t="n">
-        <v>372.4784049289301</v>
+        <v>425.1528321053268</v>
       </c>
       <c r="AD13" t="n">
-        <v>300953.5401759977</v>
+        <v>343513.2030335102</v>
       </c>
       <c r="AE13" t="n">
-        <v>411777.9108019406</v>
+        <v>470009.9191234002</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.041676315864614e-06</v>
+        <v>4.417028101470596e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH13" t="n">
-        <v>372478.4049289301</v>
+        <v>425152.8321053268</v>
       </c>
     </row>
     <row r="14">
@@ -58176,28 +58176,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>299.4833615308171</v>
+        <v>342.0430243883298</v>
       </c>
       <c r="AB14" t="n">
-        <v>409.7663475199004</v>
+        <v>467.9983558413601</v>
       </c>
       <c r="AC14" t="n">
-        <v>370.6588224232811</v>
+        <v>423.3332495996777</v>
       </c>
       <c r="AD14" t="n">
-        <v>299483.3615308172</v>
+        <v>342043.0243883298</v>
       </c>
       <c r="AE14" t="n">
-        <v>409766.3475199004</v>
+        <v>467998.3558413601</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.048318980891617e-06</v>
+        <v>4.426674373804011e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.13346354166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>370658.8224232811</v>
+        <v>423333.2495996777</v>
       </c>
     </row>
     <row r="15">
@@ -58282,28 +58282,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>296.4461436099652</v>
+        <v>339.0058064674779</v>
       </c>
       <c r="AB15" t="n">
-        <v>405.6106919679928</v>
+        <v>463.8427002894525</v>
       </c>
       <c r="AC15" t="n">
-        <v>366.8997768047484</v>
+        <v>419.5742039811449</v>
       </c>
       <c r="AD15" t="n">
-        <v>296446.1436099652</v>
+        <v>339005.8064674779</v>
       </c>
       <c r="AE15" t="n">
-        <v>405610.6919679928</v>
+        <v>463842.7002894524</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.062458367877666e-06</v>
+        <v>4.447207153485137e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.087890625</v>
       </c>
       <c r="AH15" t="n">
-        <v>366899.7768047484</v>
+        <v>419574.2039811449</v>
       </c>
     </row>
     <row r="16">
@@ -58388,28 +58388,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>294.8470990899744</v>
+        <v>337.406761947487</v>
       </c>
       <c r="AB16" t="n">
-        <v>403.4228087108759</v>
+        <v>461.6548170323356</v>
       </c>
       <c r="AC16" t="n">
-        <v>364.9207020549773</v>
+        <v>417.5951292313739</v>
       </c>
       <c r="AD16" t="n">
-        <v>294847.0990899744</v>
+        <v>337406.761947487</v>
       </c>
       <c r="AE16" t="n">
-        <v>403422.8087108759</v>
+        <v>461654.8170323356</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.068341871187297e-06</v>
+        <v>4.455750994694733e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.068359375</v>
       </c>
       <c r="AH16" t="n">
-        <v>364920.7020549773</v>
+        <v>417595.1292313739</v>
       </c>
     </row>
     <row r="17">
@@ -58494,28 +58494,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>292.468802179838</v>
+        <v>335.0284650373505</v>
       </c>
       <c r="AB17" t="n">
-        <v>400.1687179553726</v>
+        <v>458.4007262768324</v>
       </c>
       <c r="AC17" t="n">
-        <v>361.9771771540342</v>
+        <v>414.6516043304308</v>
       </c>
       <c r="AD17" t="n">
-        <v>292468.8021798379</v>
+        <v>335028.4650373505</v>
       </c>
       <c r="AE17" t="n">
-        <v>400168.7179553726</v>
+        <v>458400.7262768323</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.07754670701043e-06</v>
+        <v>4.469117972071036e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH17" t="n">
-        <v>361977.1771540342</v>
+        <v>414651.6043304307</v>
       </c>
     </row>
     <row r="18">
@@ -58600,28 +58600,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>290.0235588835272</v>
+        <v>332.5832217410398</v>
       </c>
       <c r="AB18" t="n">
-        <v>396.8230282008396</v>
+        <v>455.0550365222993</v>
       </c>
       <c r="AC18" t="n">
-        <v>358.9507953339687</v>
+        <v>411.6252225103653</v>
       </c>
       <c r="AD18" t="n">
-        <v>290023.5588835272</v>
+        <v>332583.2217410398</v>
       </c>
       <c r="AE18" t="n">
-        <v>396823.0282008396</v>
+        <v>455055.0365222993</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.08466384811079e-06</v>
+        <v>4.479453263856837e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.01302083333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>358950.7953339687</v>
+        <v>411625.2225103653</v>
       </c>
     </row>
     <row r="19">
@@ -58706,28 +58706,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>279.437416679623</v>
+        <v>330.4406320147196</v>
       </c>
       <c r="AB19" t="n">
-        <v>382.338601409825</v>
+        <v>452.1234507343605</v>
       </c>
       <c r="AC19" t="n">
-        <v>345.8487419068679</v>
+        <v>408.9734231555209</v>
       </c>
       <c r="AD19" t="n">
-        <v>279437.416679623</v>
+        <v>330440.6320147196</v>
       </c>
       <c r="AE19" t="n">
-        <v>382338.601409825</v>
+        <v>452123.4507343604</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.092729941357865e-06</v>
+        <v>4.491166594547413e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>345848.7419068679</v>
+        <v>408973.4231555209</v>
       </c>
     </row>
     <row r="20">
@@ -58812,28 +58812,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>277.5769331682557</v>
+        <v>328.5801485033523</v>
       </c>
       <c r="AB20" t="n">
-        <v>379.7930057908326</v>
+        <v>449.577855115368</v>
       </c>
       <c r="AC20" t="n">
-        <v>343.5460943609862</v>
+        <v>406.6707756096392</v>
       </c>
       <c r="AD20" t="n">
-        <v>277576.9331682557</v>
+        <v>328580.1485033523</v>
       </c>
       <c r="AE20" t="n">
-        <v>379793.0057908326</v>
+        <v>449577.855115368</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.098993025526182e-06</v>
+        <v>4.500261651318917e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.967447916666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>343546.0943609862</v>
+        <v>406670.7756096392</v>
       </c>
     </row>
     <row r="21">
@@ -58918,28 +58918,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>274.4844510888073</v>
+        <v>325.4876664239039</v>
       </c>
       <c r="AB21" t="n">
-        <v>375.5617353790508</v>
+        <v>445.3465847035862</v>
       </c>
       <c r="AC21" t="n">
-        <v>339.7186504586795</v>
+        <v>402.8433317073325</v>
       </c>
       <c r="AD21" t="n">
-        <v>274484.4510888073</v>
+        <v>325487.6664239039</v>
       </c>
       <c r="AE21" t="n">
-        <v>375561.7353790508</v>
+        <v>445346.5847035862</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.106679537914571e-06</v>
+        <v>4.511423766447584e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.944661458333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>339718.6504586795</v>
+        <v>402843.3317073325</v>
       </c>
     </row>
     <row r="22">
@@ -59024,28 +59024,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>273.8954238050764</v>
+        <v>324.898639140173</v>
       </c>
       <c r="AB22" t="n">
-        <v>374.7558022634004</v>
+        <v>444.5406515879358</v>
       </c>
       <c r="AC22" t="n">
-        <v>338.9896344684525</v>
+        <v>402.1143157171055</v>
       </c>
       <c r="AD22" t="n">
-        <v>273895.4238050764</v>
+        <v>324898.639140173</v>
       </c>
       <c r="AE22" t="n">
-        <v>374755.8022634004</v>
+        <v>444540.6515879357</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.107059118773257e-06</v>
+        <v>4.511974982009493e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.94140625</v>
       </c>
       <c r="AH22" t="n">
-        <v>338989.6344684525</v>
+        <v>402114.3157171055</v>
       </c>
     </row>
     <row r="23">
@@ -59130,28 +59130,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>271.248257312804</v>
+        <v>322.2514726479006</v>
       </c>
       <c r="AB23" t="n">
-        <v>371.13383228393</v>
+        <v>440.9186816084653</v>
       </c>
       <c r="AC23" t="n">
-        <v>335.7133402203559</v>
+        <v>398.838021469009</v>
       </c>
       <c r="AD23" t="n">
-        <v>271248.257312804</v>
+        <v>322251.4726479006</v>
       </c>
       <c r="AE23" t="n">
-        <v>371133.83228393</v>
+        <v>440918.6816084653</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.114460945517632e-06</v>
+        <v>4.522723685466726e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.918619791666666</v>
       </c>
       <c r="AH23" t="n">
-        <v>335713.3402203559</v>
+        <v>398838.021469009</v>
       </c>
     </row>
     <row r="24">
@@ -59236,28 +59236,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>271.5284675793732</v>
+        <v>322.5316829144697</v>
       </c>
       <c r="AB24" t="n">
-        <v>371.5172283326543</v>
+        <v>441.3020776571897</v>
       </c>
       <c r="AC24" t="n">
-        <v>336.0601454882898</v>
+        <v>399.1848267369427</v>
       </c>
       <c r="AD24" t="n">
-        <v>271528.4675793732</v>
+        <v>322531.6829144697</v>
       </c>
       <c r="AE24" t="n">
-        <v>371517.2283326543</v>
+        <v>441302.0776571897</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.112752831653545e-06</v>
+        <v>4.520243215438134e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.925130208333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>336060.1454882898</v>
+        <v>399184.8267369427</v>
       </c>
     </row>
     <row r="25">
@@ -59342,28 +59342,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>271.9914126089622</v>
+        <v>322.9946279440587</v>
       </c>
       <c r="AB25" t="n">
-        <v>372.1506501458312</v>
+        <v>441.9354994703666</v>
       </c>
       <c r="AC25" t="n">
-        <v>336.6331144126302</v>
+        <v>399.7577956612832</v>
       </c>
       <c r="AD25" t="n">
-        <v>271991.4126089622</v>
+        <v>322994.6279440587</v>
       </c>
       <c r="AE25" t="n">
-        <v>372150.6501458312</v>
+        <v>441935.4994703666</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.112657936438874e-06</v>
+        <v>4.520105411547657e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.925130208333334</v>
       </c>
       <c r="AH25" t="n">
-        <v>336633.1144126302</v>
+        <v>399757.7956612832</v>
       </c>
     </row>
     <row r="26">
@@ -59448,28 +59448,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>272.2996161478001</v>
+        <v>323.3028314828967</v>
       </c>
       <c r="AB26" t="n">
-        <v>372.5723478246499</v>
+        <v>442.3571971491853</v>
       </c>
       <c r="AC26" t="n">
-        <v>337.0145658568388</v>
+        <v>400.1392471054918</v>
       </c>
       <c r="AD26" t="n">
-        <v>272299.6161478001</v>
+        <v>323302.8314828967</v>
       </c>
       <c r="AE26" t="n">
-        <v>372572.3478246499</v>
+        <v>442357.1971491852</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.113037517297559e-06</v>
+        <v>4.520656627109566e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH26" t="n">
-        <v>337014.5658568388</v>
+        <v>400139.2471054918</v>
       </c>
     </row>
   </sheetData>
@@ -59745,28 +59745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.6999321542994</v>
+        <v>192.3085751212939</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.8260514683198</v>
+        <v>263.1250765363932</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.2777405914104</v>
+        <v>238.0127885302011</v>
       </c>
       <c r="AD2" t="n">
-        <v>149699.9321542994</v>
+        <v>192308.5751212939</v>
       </c>
       <c r="AE2" t="n">
-        <v>204826.0514683198</v>
+        <v>263125.0765363933</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.688649384589228e-06</v>
+        <v>6.148758757914377e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.76171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>185277.7405914104</v>
+        <v>238012.7885302011</v>
       </c>
     </row>
   </sheetData>
@@ -60042,28 +60042,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.6367142503929</v>
+        <v>451.1492497350835</v>
       </c>
       <c r="AB2" t="n">
-        <v>541.3276066973614</v>
+        <v>617.282306787736</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.6640596722323</v>
+        <v>558.3697497890726</v>
       </c>
       <c r="AD2" t="n">
-        <v>395636.7142503929</v>
+        <v>451149.2497350834</v>
       </c>
       <c r="AE2" t="n">
-        <v>541327.6066973613</v>
+        <v>617282.306787736</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.424988144232617e-06</v>
+        <v>3.690605514304583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.02994791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>489664.0596722323</v>
+        <v>558369.7497890725</v>
       </c>
     </row>
     <row r="3">
@@ -60148,28 +60148,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>284.3991833705131</v>
+        <v>331.8838370248162</v>
       </c>
       <c r="AB3" t="n">
-        <v>389.1275094939982</v>
+        <v>454.0981074988861</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.9897261317799</v>
+        <v>410.7596214498882</v>
       </c>
       <c r="AD3" t="n">
-        <v>284399.1833705131</v>
+        <v>331883.8370248162</v>
       </c>
       <c r="AE3" t="n">
-        <v>389127.5094939982</v>
+        <v>454098.1074988861</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.988097919741187e-06</v>
+        <v>4.547606010407375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.38671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>351989.72613178</v>
+        <v>410759.6214498882</v>
       </c>
     </row>
     <row r="4">
@@ -60254,28 +60254,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.9050980286932</v>
+        <v>301.47500302902</v>
       </c>
       <c r="AB4" t="n">
-        <v>347.4041566250576</v>
+        <v>412.4913992827632</v>
       </c>
       <c r="AC4" t="n">
-        <v>314.2483915016619</v>
+        <v>373.1237990705303</v>
       </c>
       <c r="AD4" t="n">
-        <v>253905.0980286932</v>
+        <v>301475.00302902</v>
       </c>
       <c r="AE4" t="n">
-        <v>347404.1566250576</v>
+        <v>412491.3992827631</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.187715527614492e-06</v>
+        <v>4.851405369642032e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.673828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>314248.3915016619</v>
+        <v>373123.7990705303</v>
       </c>
     </row>
     <row r="5">
@@ -60360,28 +60360,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>242.5416813127224</v>
+        <v>282.1691348457842</v>
       </c>
       <c r="AB5" t="n">
-        <v>331.85622855571</v>
+        <v>386.0762587196667</v>
       </c>
       <c r="AC5" t="n">
-        <v>300.1843358655939</v>
+        <v>349.2296824488933</v>
       </c>
       <c r="AD5" t="n">
-        <v>242541.6813127224</v>
+        <v>282169.1348457842</v>
       </c>
       <c r="AE5" t="n">
-        <v>331856.22855571</v>
+        <v>386076.2587196667</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.287106284204813e-06</v>
+        <v>5.002668820234785e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.34830729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>300184.3358655939</v>
+        <v>349229.6824488933</v>
       </c>
     </row>
     <row r="6">
@@ -60466,28 +60466,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>234.3364883778585</v>
+        <v>273.9639419109202</v>
       </c>
       <c r="AB6" t="n">
-        <v>320.6295215946703</v>
+        <v>374.8495517586214</v>
       </c>
       <c r="AC6" t="n">
-        <v>290.02909006013</v>
+        <v>339.0744366434279</v>
       </c>
       <c r="AD6" t="n">
-        <v>234336.4883778585</v>
+        <v>273963.9419109202</v>
       </c>
       <c r="AE6" t="n">
-        <v>320629.5215946703</v>
+        <v>374849.5517586214</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.350022409827708e-06</v>
+        <v>5.098421288433353e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH6" t="n">
-        <v>290029.0900601301</v>
+        <v>339074.4366434279</v>
       </c>
     </row>
     <row r="7">
@@ -60572,28 +60572,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>228.9241114137247</v>
+        <v>268.5515649467862</v>
       </c>
       <c r="AB7" t="n">
-        <v>313.2240686551265</v>
+        <v>367.4440988190736</v>
       </c>
       <c r="AC7" t="n">
-        <v>283.3304031555155</v>
+        <v>332.3757497388121</v>
       </c>
       <c r="AD7" t="n">
-        <v>228924.1114137247</v>
+        <v>268551.5649467863</v>
       </c>
       <c r="AE7" t="n">
-        <v>313224.0686551265</v>
+        <v>367444.0988190736</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.384824851409808e-06</v>
+        <v>5.151387354729238e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>283330.4031555154</v>
+        <v>332375.7497388122</v>
       </c>
     </row>
     <row r="8">
@@ -60678,28 +60678,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>215.6465285272249</v>
+        <v>263.1310926729795</v>
       </c>
       <c r="AB8" t="n">
-        <v>295.057093984211</v>
+        <v>360.0275695196919</v>
       </c>
       <c r="AC8" t="n">
-        <v>266.8972590496772</v>
+        <v>325.6670435865992</v>
       </c>
       <c r="AD8" t="n">
-        <v>215646.5285272249</v>
+        <v>263131.0926729796</v>
       </c>
       <c r="AE8" t="n">
-        <v>295057.093984211</v>
+        <v>360027.5695196919</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.417014497077336e-06</v>
+        <v>5.200376989621529e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.957682291666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>266897.2590496772</v>
+        <v>325667.0435865992</v>
       </c>
     </row>
     <row r="9">
@@ -60784,28 +60784,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>211.9471201380647</v>
+        <v>251.6598250171435</v>
       </c>
       <c r="AB9" t="n">
-        <v>289.9954002197849</v>
+        <v>344.3320750362026</v>
       </c>
       <c r="AC9" t="n">
-        <v>262.3186462339945</v>
+        <v>311.4695050679527</v>
       </c>
       <c r="AD9" t="n">
-        <v>211947.1201380647</v>
+        <v>251659.8250171435</v>
       </c>
       <c r="AE9" t="n">
-        <v>289995.4002197849</v>
+        <v>344332.0750362026</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.438230399903661e-06</v>
+        <v>5.23266561261872e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>262318.6462339945</v>
+        <v>311469.5050679527</v>
       </c>
     </row>
     <row r="10">
@@ -60890,28 +60890,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>212.5442871904722</v>
+        <v>252.256992069551</v>
       </c>
       <c r="AB10" t="n">
-        <v>290.8124705260394</v>
+        <v>345.149145342457</v>
       </c>
       <c r="AC10" t="n">
-        <v>263.0577364969858</v>
+        <v>312.2085953309439</v>
       </c>
       <c r="AD10" t="n">
-        <v>212544.2871904722</v>
+        <v>252256.992069551</v>
       </c>
       <c r="AE10" t="n">
-        <v>290812.4705260394</v>
+        <v>345149.145342457</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.436662722354918e-06</v>
+        <v>5.230279753776563e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.899088541666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>263057.7364969858</v>
+        <v>312208.5953309439</v>
       </c>
     </row>
   </sheetData>
@@ -61187,28 +61187,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.5191568652631</v>
+        <v>577.8489260895127</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.2513211724681</v>
+        <v>790.6383935710927</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.3248792921777</v>
+        <v>715.1809749566216</v>
       </c>
       <c r="AD2" t="n">
-        <v>512519.1568652631</v>
+        <v>577848.9260895126</v>
       </c>
       <c r="AE2" t="n">
-        <v>701251.3211724681</v>
+        <v>790638.3935710927</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.082181332597545e-06</v>
+        <v>3.108510778326505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.72916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>634324.8792921777</v>
+        <v>715180.9749566216</v>
       </c>
     </row>
     <row r="3">
@@ -61293,28 +61293,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.3749829196312</v>
+        <v>393.2870584917978</v>
       </c>
       <c r="AB3" t="n">
-        <v>471.1890443826362</v>
+        <v>538.1127040289554</v>
       </c>
       <c r="AC3" t="n">
-        <v>426.2194233047339</v>
+        <v>486.7559828023546</v>
       </c>
       <c r="AD3" t="n">
-        <v>344374.9829196312</v>
+        <v>393287.0584917978</v>
       </c>
       <c r="AE3" t="n">
-        <v>471189.0443826362</v>
+        <v>538112.7040289553</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.723347884151769e-06</v>
+        <v>4.065715179790599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.02799479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>426219.4233047339</v>
+        <v>486755.9828023546</v>
       </c>
     </row>
     <row r="4">
@@ -61399,28 +61399,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>303.8105098100746</v>
+        <v>344.6417050837816</v>
       </c>
       <c r="AB4" t="n">
-        <v>415.6869426958895</v>
+        <v>471.5539854145782</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.0143643052813</v>
+        <v>426.5495348767853</v>
       </c>
       <c r="AD4" t="n">
-        <v>303810.5098100746</v>
+        <v>344641.7050837816</v>
       </c>
       <c r="AE4" t="n">
-        <v>415686.9426958895</v>
+        <v>471553.9854145782</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.95266655505448e-06</v>
+        <v>4.408067475920019e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.09375</v>
       </c>
       <c r="AH4" t="n">
-        <v>376014.3643052813</v>
+        <v>426549.5348767854</v>
       </c>
     </row>
     <row r="5">
@@ -61505,28 +61505,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>280.5912425300646</v>
+        <v>329.5032285936801</v>
       </c>
       <c r="AB5" t="n">
-        <v>383.9173168416033</v>
+        <v>450.840854018374</v>
       </c>
       <c r="AC5" t="n">
-        <v>347.2767869535782</v>
+        <v>407.8132356699723</v>
       </c>
       <c r="AD5" t="n">
-        <v>280591.2425300646</v>
+        <v>329503.2285936801</v>
       </c>
       <c r="AE5" t="n">
-        <v>383917.3168416033</v>
+        <v>450840.854018374</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.067879314239914e-06</v>
+        <v>4.580069836195661e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.67708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>347276.7869535782</v>
+        <v>407813.2356699723</v>
       </c>
     </row>
     <row r="6">
@@ -61611,28 +61611,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>271.0361072761135</v>
+        <v>311.7819616952488</v>
       </c>
       <c r="AB6" t="n">
-        <v>370.8435592443308</v>
+        <v>426.5938348408219</v>
       </c>
       <c r="AC6" t="n">
-        <v>335.4507704322555</v>
+        <v>385.8803179718207</v>
       </c>
       <c r="AD6" t="n">
-        <v>271036.1072761135</v>
+        <v>311781.9616952488</v>
       </c>
       <c r="AE6" t="n">
-        <v>370843.5592443309</v>
+        <v>426593.8348408219</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.14274245208617e-06</v>
+        <v>4.691833815274331e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.42317708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>335450.7704322555</v>
+        <v>385880.3179718207</v>
       </c>
     </row>
     <row r="7">
@@ -61717,28 +61717,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>264.130157279157</v>
+        <v>304.8760116982924</v>
       </c>
       <c r="AB7" t="n">
-        <v>361.3945337894836</v>
+        <v>417.1448093859747</v>
       </c>
       <c r="AC7" t="n">
-        <v>326.9035467050284</v>
+        <v>377.3330942445936</v>
       </c>
       <c r="AD7" t="n">
-        <v>264130.157279157</v>
+        <v>304876.0116982923</v>
       </c>
       <c r="AE7" t="n">
-        <v>361394.5337894836</v>
+        <v>417144.8093859747</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.193657435621393e-06</v>
+        <v>4.767845338679986e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.25716145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>326903.5467050284</v>
+        <v>377333.0942445936</v>
       </c>
     </row>
     <row r="8">
@@ -61823,28 +61823,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>259.5043763555747</v>
+        <v>300.25023077471</v>
       </c>
       <c r="AB8" t="n">
-        <v>355.0653362547868</v>
+        <v>410.8156118512779</v>
       </c>
       <c r="AC8" t="n">
-        <v>321.1783988999585</v>
+        <v>371.6079464395237</v>
       </c>
       <c r="AD8" t="n">
-        <v>259504.3763555746</v>
+        <v>300250.23077471</v>
       </c>
       <c r="AE8" t="n">
-        <v>355065.3362547868</v>
+        <v>410815.6118512779</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.221328622325318e-06</v>
+        <v>4.809155949226537e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>321178.3988999585</v>
+        <v>371607.9464395237</v>
       </c>
     </row>
     <row r="9">
@@ -61929,28 +61929,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>255.2141472075751</v>
+        <v>295.9600016267137</v>
       </c>
       <c r="AB9" t="n">
-        <v>349.1952554627769</v>
+        <v>404.9455310594374</v>
       </c>
       <c r="AC9" t="n">
-        <v>315.8685503801329</v>
+        <v>366.2980979197463</v>
       </c>
       <c r="AD9" t="n">
-        <v>255214.1472075752</v>
+        <v>295960.0016267137</v>
       </c>
       <c r="AE9" t="n">
-        <v>349195.2554627769</v>
+        <v>404945.5310594374</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.249301676520559e-06</v>
+        <v>4.850917220979051e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.08138020833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>315868.5503801329</v>
+        <v>366298.0979197463</v>
       </c>
     </row>
     <row r="10">
@@ -62035,28 +62035,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>241.2892623459706</v>
+        <v>290.1159075550174</v>
       </c>
       <c r="AB10" t="n">
-        <v>330.1426136725757</v>
+        <v>396.9493837273085</v>
       </c>
       <c r="AC10" t="n">
-        <v>298.6342659818318</v>
+        <v>359.0650916663325</v>
       </c>
       <c r="AD10" t="n">
-        <v>241289.2623459706</v>
+        <v>290115.9075550174</v>
       </c>
       <c r="AE10" t="n">
-        <v>330142.6136725757</v>
+        <v>396949.3837273085</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.277073485721589e-06</v>
+        <v>4.892378051927589e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.996744791666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>298634.2659818318</v>
+        <v>359065.0916663325</v>
       </c>
     </row>
     <row r="11">
@@ -62141,28 +62141,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>238.8870567154541</v>
+        <v>287.7137019245009</v>
       </c>
       <c r="AB11" t="n">
-        <v>326.8558099510719</v>
+        <v>393.6625800058028</v>
       </c>
       <c r="AC11" t="n">
-        <v>295.6611501944492</v>
+        <v>356.0919758789494</v>
       </c>
       <c r="AD11" t="n">
-        <v>238887.0567154541</v>
+        <v>287713.7019245009</v>
       </c>
       <c r="AE11" t="n">
-        <v>326855.8099510719</v>
+        <v>393662.5800058028</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.290355655339473e-06</v>
+        <v>4.912207144989934e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.954427083333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>295661.1501944492</v>
+        <v>356091.9758789494</v>
       </c>
     </row>
     <row r="12">
@@ -62247,28 +62247,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>234.9696731076374</v>
+        <v>283.7963183166842</v>
       </c>
       <c r="AB12" t="n">
-        <v>321.4958728760923</v>
+        <v>388.3026429308205</v>
       </c>
       <c r="AC12" t="n">
-        <v>290.8127579911849</v>
+        <v>351.2435836756844</v>
       </c>
       <c r="AD12" t="n">
-        <v>234969.6731076374</v>
+        <v>283796.3183166842</v>
       </c>
       <c r="AE12" t="n">
-        <v>321495.8728760923</v>
+        <v>388302.6429308205</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.303436579963147e-06</v>
+        <v>4.931735797248304e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.915364583333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>290812.7579911849</v>
+        <v>351243.5836756844</v>
       </c>
     </row>
     <row r="13">
@@ -62353,28 +62353,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>232.3527522227133</v>
+        <v>273.1838579878722</v>
       </c>
       <c r="AB13" t="n">
-        <v>317.9152862709395</v>
+        <v>373.7822065202332</v>
       </c>
       <c r="AC13" t="n">
-        <v>287.573897546242</v>
+        <v>338.108957336563</v>
       </c>
       <c r="AD13" t="n">
-        <v>232352.7522227133</v>
+        <v>273183.8579878722</v>
       </c>
       <c r="AE13" t="n">
-        <v>317915.2862709395</v>
+        <v>373782.2065202332</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.310782022251825e-06</v>
+        <v>4.942701886593389e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.892578125</v>
       </c>
       <c r="AH13" t="n">
-        <v>287573.897546242</v>
+        <v>338108.957336563</v>
       </c>
     </row>
     <row r="14">
@@ -62459,28 +62459,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>232.0734738211509</v>
+        <v>272.9045795863098</v>
       </c>
       <c r="AB14" t="n">
-        <v>317.5331652410285</v>
+        <v>373.400085490322</v>
       </c>
       <c r="AC14" t="n">
-        <v>287.2282456111154</v>
+        <v>337.7633054014364</v>
       </c>
       <c r="AD14" t="n">
-        <v>232073.473821151</v>
+        <v>272904.5795863097</v>
       </c>
       <c r="AE14" t="n">
-        <v>317533.1652410285</v>
+        <v>373400.085490322</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.316014392101294e-06</v>
+        <v>4.950513347496736e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.876302083333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>287228.2456111154</v>
+        <v>337763.3054014364</v>
       </c>
     </row>
     <row r="15">
@@ -62565,28 +62565,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>232.8581018278801</v>
+        <v>273.689207593039</v>
       </c>
       <c r="AB15" t="n">
-        <v>318.6067278951795</v>
+        <v>374.4736481444735</v>
       </c>
       <c r="AC15" t="n">
-        <v>288.1993489523092</v>
+        <v>338.7344087426303</v>
       </c>
       <c r="AD15" t="n">
-        <v>232858.1018278801</v>
+        <v>273689.207593039</v>
       </c>
       <c r="AE15" t="n">
-        <v>318606.7278951795</v>
+        <v>374473.6481444736</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.31651750458682e-06</v>
+        <v>4.951264449506674e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.876302083333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>288199.3489523092</v>
+        <v>338734.4087426303</v>
       </c>
     </row>
   </sheetData>
